--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.IPA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.IPA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="IPA_targeted" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
   <si>
     <t>mzML</t>
   </si>
@@ -476,31 +477,64 @@
     <t>≥ 5</t>
   </si>
   <si>
-    <t>YES OR "NO"(When "YES", fill out PARAM0006-PARAM0010, PARAM0012, PARAM0013, PARAM0015, PARAM0017, PARAM0020, PARAM0028)</t>
-  </si>
-  <si>
     <t>Maximum percentage of missing scans (gaps) on the top 80% of raw chromatographic peaks (%)</t>
   </si>
   <si>
     <t>Rounding digit for mass spectral size reduction by removing [non-12C/13C] m/zs to accelerate calculation of peaklists</t>
   </si>
   <si>
-    <t>≥ 0 (integer) (Fill this cell in case you selected "YES" for PARAM0019)</t>
-  </si>
-  <si>
     <t>Perform compound-centric annotation</t>
   </si>
   <si>
     <t>Perform sample-centric annotation</t>
   </si>
   <si>
-    <t>Employ IPA for targeted analysis (Applicable only for the 'IDSL_TargetedAnalysis' module)</t>
+    <t>Employ IPA for targeted analysis (Applicable only for the 'IPA_TargetedAnalysis' module)</t>
+  </si>
+  <si>
+    <t>≥ 1 (integer) (Fill this cell in case you selected "YES" for PARAM0019)</t>
+  </si>
+  <si>
+    <t>Targeted m/z and RT</t>
+  </si>
+  <si>
+    <t>PARAM_MZ</t>
+  </si>
+  <si>
+    <t>PARAM_RT</t>
+  </si>
+  <si>
+    <t>Fill out the `IPA_targeted` tab</t>
+  </si>
+  <si>
+    <t>A vector of m/z values</t>
+  </si>
+  <si>
+    <t>A vector of RT values</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO"</t>
+  </si>
+  <si>
+    <t>Save EIC figures</t>
+  </si>
+  <si>
+    <t>Save chromatographic characteristics table</t>
+  </si>
+  <si>
+    <t>PARAM_EIC</t>
+  </si>
+  <si>
+    <t>PARAM_CCT</t>
   </si>
   <si>
     <t>All</t>
   </si>
   <si>
     <t>003.mzML;004.mzML</t>
+  </si>
+  <si>
+    <t>c(0,0)</t>
   </si>
 </sst>
 </file>
@@ -731,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -931,6 +965,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,15 +1010,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,6 +1038,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1282,25 +1331,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D48"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="45" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="68.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.5546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="72" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="36" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>36</v>
       </c>
@@ -1326,8 +1375,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1346,8 +1395,8 @@
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1364,8 +1413,8 @@
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1382,8 +1431,8 @@
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
@@ -1400,26 +1449,26 @@
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
       <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1436,8 +1485,8 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1452,8 +1501,8 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1510,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>128</v>
@@ -1470,8 +1519,8 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1488,8 +1537,8 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1502,8 +1551,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1528,8 +1577,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1552,8 +1601,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1578,8 +1627,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1602,8 +1651,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1626,8 +1675,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
       <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1650,13 +1699,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
@@ -1674,8 +1723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1700,8 +1749,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
       <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="24">
         <v>50</v>
@@ -1724,8 +1773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
       <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
@@ -1748,13 +1797,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="24">
         <v>30</v>
@@ -1772,8 +1821,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="88"/>
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1796,8 +1845,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="88"/>
       <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1869,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
       <c r="B25" s="22" t="s">
         <v>44</v>
       </c>
@@ -1844,8 +1893,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="88"/>
       <c r="B26" s="22" t="s">
         <v>45</v>
       </c>
@@ -1868,8 +1917,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
       <c r="B27" s="22" t="s">
         <v>46</v>
       </c>
@@ -1892,8 +1941,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
       <c r="B28" s="22" t="s">
         <v>47</v>
       </c>
@@ -1916,8 +1965,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+    <row r="29" spans="1:8" s="12" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="53" t="s">
@@ -1936,8 +1985,8 @@
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
       <c r="B30" s="53" t="s">
         <v>48</v>
       </c>
@@ -1945,7 +1994,7 @@
         <v>126</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E30" s="56" t="s">
         <v>129</v>
@@ -1954,8 +2003,8 @@
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
       <c r="B31" s="53" t="s">
         <v>49</v>
       </c>
@@ -1972,8 +2021,8 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
       <c r="B32" s="53" t="s">
         <v>50</v>
       </c>
@@ -1990,8 +2039,8 @@
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
     </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:8" s="12" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="77"/>
       <c r="B33" s="53" t="s">
         <v>51</v>
       </c>
@@ -2008,8 +2057,8 @@
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:8" s="12" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
       <c r="B34" s="53" t="s">
         <v>52</v>
       </c>
@@ -2024,8 +2073,8 @@
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
     </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
+    <row r="35" spans="1:8" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
       <c r="B35" s="37" t="s">
         <v>53</v>
       </c>
@@ -2048,8 +2097,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
       <c r="B36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2066,8 +2115,8 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:8" s="12" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78"/>
       <c r="B37" s="37" t="s">
         <v>56</v>
       </c>
@@ -2090,8 +2139,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="86" t="s">
+    <row r="38" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="90" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="41" t="s">
@@ -2116,8 +2165,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+    <row r="39" spans="1:8" s="12" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
       <c r="B39" s="41" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2183,8 @@
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
     </row>
-    <row r="40" spans="1:8" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+    <row r="40" spans="1:8" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
       <c r="B40" s="47" t="s">
         <v>69</v>
       </c>
@@ -2152,8 +2201,8 @@
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
         <v>133</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2168,8 +2217,8 @@
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
     </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
+    <row r="42" spans="1:8" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
       <c r="B42" s="27" t="s">
         <v>71</v>
       </c>
@@ -2186,8 +2235,8 @@
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
     </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
+    <row r="43" spans="1:8" s="12" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
       <c r="B43" s="27" t="s">
         <v>72</v>
       </c>
@@ -2210,8 +2259,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
+    <row r="44" spans="1:8" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
       <c r="B44" s="27" t="s">
         <v>73</v>
       </c>
@@ -2228,8 +2277,8 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
     </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+    <row r="45" spans="1:8" s="12" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
       <c r="B45" s="27" t="s">
         <v>75</v>
       </c>
@@ -2246,13 +2295,13 @@
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
     </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
+    <row r="46" spans="1:8" s="12" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
       <c r="B46" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>34</v>
@@ -2264,13 +2313,13 @@
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
     </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
+    <row r="47" spans="1:8" s="12" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="75"/>
       <c r="B47" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>34</v>
@@ -2282,8 +2331,8 @@
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
     </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
+    <row r="48" spans="1:8" s="12" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="76"/>
       <c r="B48" s="27" t="s">
         <v>135</v>
       </c>
@@ -2300,16 +2349,16 @@
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
       <c r="E49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A19:A28"/>
@@ -2318,4 +2367,373 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="16">
+        <v>90</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16">
+        <v>90</v>
+      </c>
+      <c r="G11" s="16">
+        <v>90</v>
+      </c>
+      <c r="H11" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="17">
+        <v>12</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="17">
+        <v>12</v>
+      </c>
+      <c r="G13" s="17">
+        <v>15</v>
+      </c>
+      <c r="H13" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="24">
+        <v>50</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24">
+        <v>50</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="24">
+        <v>100</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="24">
+        <v>100</v>
+      </c>
+      <c r="G16" s="24">
+        <v>100</v>
+      </c>
+      <c r="H16" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
   <si>
     <t>mzML</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>c(0,0)</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -1331,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D8:D11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1498,9 @@
       <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="E8" s="63"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1545,7 +1550,9 @@
       <c r="C11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2373,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>A list of semicolon separated of reference samples including their extensions (with no space after or before semicolons)</t>
-  </si>
-  <si>
-    <t>"mzML" or "mzXML" (Fill this cell in case you selected "All" for PARAM0008)</t>
   </si>
   <si>
     <t>Number of extra scans on the both sides of peak boundaries to fill</t>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0008)</t>
   </si>
 </sst>
 </file>
@@ -1334,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1458,13 +1458,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
@@ -1499,7 +1499,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="14"/>
@@ -1515,7 +1515,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>128</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1551,7 +1551,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="14"/>
@@ -1670,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="17">
         <v>12</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
@@ -1768,7 +1768,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="24">
         <v>50</v>
@@ -1810,7 +1810,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="24">
         <v>30</v>
@@ -1858,7 +1858,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="24">
         <v>30</v>
@@ -2001,7 +2001,7 @@
         <v>126</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="56" t="s">
         <v>129</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>57</v>
@@ -2196,7 +2196,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="48">
         <v>20</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>70</v>
@@ -2308,7 +2308,7 @@
         <v>106</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>34</v>
@@ -2326,7 +2326,7 @@
         <v>108</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>34</v>
@@ -2341,16 +2341,16 @@
     <row r="48" spans="1:8" s="12" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
@@ -2380,9 +2380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2467,7 +2467,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>128</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>146</v>
-      </c>
       <c r="C7" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="43"/>
@@ -2529,13 +2529,13 @@
     <row r="8" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91"/>
       <c r="B8" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="43"/>
@@ -2545,16 +2545,16 @@
     <row r="9" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -2563,16 +2563,16 @@
     <row r="10" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -2642,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="17">
         <v>12</v>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
   <si>
     <t>mzML</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Input HRMS data format</t>
-  </si>
-  <si>
-    <t>2-4 (integer) (Select 0 to skip this module) It has higher power for lower values</t>
   </si>
   <si>
     <t>≥ 0 (integer)</t>
@@ -575,6 +572,12 @@
       </rPr>
       <t>S = 34S - 32S = 1.9957958356, or any numerical value</t>
     </r>
+  </si>
+  <si>
+    <t>Pairing 12C/13C isotopologues in the mass spectra level</t>
+  </si>
+  <si>
+    <t>1-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow. However, it may introduce some errors, too.</t>
   </si>
 </sst>
 </file>
@@ -1776,38 +1779,38 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
     <col min="4" max="4" width="72" style="44" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="61.5546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="44" customWidth="1"/>
     <col min="7" max="7" width="32" style="44" customWidth="1"/>
     <col min="8" max="8" width="30" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="9" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="140" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -1819,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="141" t="s">
         <v>83</v>
       </c>
@@ -1833,13 +1836,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1851,13 +1854,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="142"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1869,49 +1872,49 @@
         <v>34</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="142"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="142"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="143"/>
       <c r="B7" s="93" t="s">
         <v>16</v>
@@ -1923,15 +1926,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
       <c r="H7" s="95"/>
     </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>17</v>
@@ -1940,32 +1943,32 @@
         <v>92</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
     </row>
-    <row r="9" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="157"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1977,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="158"/>
       <c r="B11" s="59" t="s">
         <v>20</v>
@@ -1992,16 +1995,16 @@
         <v>91</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
     </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="154" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="90" t="s">
         <v>21</v>
@@ -2025,25 +2028,25 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="155"/>
       <c r="B13" s="97" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="99">
         <v>1.003354835336</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="151" t="s">
         <v>39</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="152"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -2093,19 +2096,19 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="152"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8">
         <v>12</v>
@@ -2117,7 +2120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="152"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -2141,19 +2144,19 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153"/>
       <c r="B18" s="79" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F18" s="81">
         <v>2</v>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="159" t="s">
         <v>84</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="160"/>
       <c r="B20" s="10" t="s">
         <v>29</v>
@@ -2203,7 +2206,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="12">
         <v>50</v>
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="160"/>
       <c r="B21" s="10" t="s">
         <v>30</v>
@@ -2239,13 +2242,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="160"/>
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="12">
         <v>30</v>
@@ -2263,19 +2266,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="160"/>
       <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="12">
         <v>3</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="12">
         <v>3</v>
@@ -2287,13 +2290,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="160"/>
       <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="12">
         <v>30</v>
@@ -2311,7 +2314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="160"/>
       <c r="B25" s="129" t="s">
         <v>44</v>
@@ -2335,7 +2338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="160"/>
       <c r="B26" s="129" t="s">
         <v>45</v>
@@ -2359,7 +2362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160"/>
       <c r="B27" s="129" t="s">
         <v>46</v>
@@ -2383,19 +2386,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="161"/>
       <c r="B28" s="130" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="133">
         <v>100</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="84">
         <v>100</v>
@@ -2407,7 +2410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="147" t="s">
         <v>85</v>
       </c>
@@ -2421,49 +2424,49 @@
         <v>34</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="104"/>
       <c r="G29" s="104"/>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="148"/>
       <c r="B30" s="124" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="148"/>
       <c r="B31" s="124" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="127">
         <v>50</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="148"/>
       <c r="B32" s="124" t="s">
         <v>50</v>
@@ -2481,25 +2484,25 @@
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="148"/>
       <c r="B33" s="124" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="127">
         <v>5</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="148"/>
       <c r="B34" s="125" t="s">
         <v>52</v>
@@ -2509,19 +2512,19 @@
       </c>
       <c r="D34" s="128"/>
       <c r="E34" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="149"/>
       <c r="B35" s="131" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="119">
         <v>0.01</v>
@@ -2539,7 +2542,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="149"/>
       <c r="B36" s="21" t="s">
         <v>54</v>
@@ -2557,7 +2560,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="150"/>
       <c r="B37" s="105" t="s">
         <v>56</v>
@@ -2581,15 +2584,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="57">
         <v>0.01</v>
@@ -2607,7 +2610,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="163"/>
       <c r="B39" s="24" t="s">
         <v>62</v>
@@ -2625,27 +2628,27 @@
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="164"/>
       <c r="B40" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="66">
         <v>20</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
-    <row r="41" spans="1:8" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="109" t="s">
         <v>70</v>
@@ -2654,14 +2657,14 @@
         <v>38</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="112"/>
       <c r="F41" s="111"/>
       <c r="G41" s="111"/>
       <c r="H41" s="111"/>
     </row>
-    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="145"/>
       <c r="B42" s="14" t="s">
         <v>71</v>
@@ -2673,19 +2676,19 @@
         <v>61</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="145"/>
       <c r="B43" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="28">
         <v>0.01</v>
@@ -2703,13 +2706,13 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="145"/>
       <c r="B44" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="16">
         <v>0.05</v>
@@ -2721,31 +2724,31 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="145"/>
       <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="145"/>
       <c r="B46" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>34</v>
@@ -2757,13 +2760,13 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="145"/>
       <c r="B47" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>34</v>
@@ -2775,25 +2778,25 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="146"/>
       <c r="B48" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="114" t="s">
         <v>132</v>
-      </c>
-      <c r="C48" s="114" t="s">
-        <v>133</v>
       </c>
       <c r="D48" s="115" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="115"/>
       <c r="G48" s="115"/>
       <c r="H48" s="115"/>
     </row>
-    <row r="49" spans="4:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D49" s="42"/>
       <c r="E49" s="43"/>
     </row>
@@ -2822,34 +2825,34 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" style="45" customWidth="1"/>
     <col min="6" max="6" width="26" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="7" max="7" width="30.33203125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -2861,7 +2864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
       <c r="B2" s="52" t="s">
         <v>16</v>
@@ -2874,15 +2877,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>17</v>
@@ -2899,26 +2902,26 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="157"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="157"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2931,13 +2934,13 @@
         <v>mzML</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="158"/>
       <c r="B6" s="59" t="s">
         <v>20</v>
@@ -2954,79 +2957,79 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>143</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="163"/>
       <c r="B8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="163"/>
       <c r="B9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="164"/>
       <c r="B10" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
     </row>
-    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="72" t="str">
         <f>parameters!B13</f>
@@ -3048,7 +3051,7 @@
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="167" t="s">
         <v>39</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="152"/>
       <c r="B13" s="8" t="str">
         <f>parameters!B16</f>
@@ -3106,7 +3109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="153"/>
       <c r="B14" s="81" t="str">
         <f>parameters!B17</f>
@@ -3134,7 +3137,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="165" t="s">
         <v>84</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="161"/>
       <c r="B16" s="84" t="str">
         <f>parameters!B28</f>
@@ -3189,7 +3192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>1-100</t>
-  </si>
-  <si>
-    <t>Number of processing cores</t>
   </si>
   <si>
     <t>PARAM0001</t>
@@ -578,6 +575,9 @@
   </si>
   <si>
     <t>1-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow. However, it may introduce some errors, too.</t>
+  </si>
+  <si>
+    <t>Number of processing threads</t>
   </si>
 </sst>
 </file>
@@ -1778,245 +1778,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
     <col min="4" max="4" width="72" style="44" customWidth="1"/>
-    <col min="5" max="5" width="61.5546875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="44" customWidth="1"/>
     <col min="7" max="7" width="32" style="44" customWidth="1"/>
     <col min="8" max="8" width="30" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="39"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="142"/>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="142"/>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="142"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="142"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="143"/>
       <c r="B7" s="93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="D7" s="95">
         <v>2</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
       <c r="H7" s="95"/>
     </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
     </row>
-    <row r="9" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="157"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="157"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="158"/>
       <c r="B11" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
     </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="91">
         <v>500</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="91">
         <v>500</v>
@@ -2028,39 +2028,39 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="155"/>
       <c r="B13" s="97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="99">
         <v>1.003354835336</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="70">
         <v>0.01</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="70">
         <v>0.01</v>
@@ -2072,19 +2072,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="152"/>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8">
         <v>0.05</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8">
         <v>0.05</v>
@@ -2096,19 +2096,19 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="152"/>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="8">
         <v>12</v>
@@ -2120,19 +2120,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="152"/>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="8">
         <v>0.05</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="8">
         <v>0.05</v>
@@ -2144,19 +2144,19 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="153"/>
       <c r="B18" s="79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="81">
         <v>1</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="81">
         <v>2</v>
@@ -2168,45 +2168,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="77" t="s">
+      <c r="H19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="160"/>
       <c r="B20" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="12">
         <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="12">
         <v>50</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="160"/>
       <c r="B21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="13">
         <v>1000</v>
@@ -2242,13 +2242,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="160"/>
       <c r="B22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="12">
         <v>30</v>
@@ -2266,19 +2266,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="160"/>
       <c r="B23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="12">
         <v>3</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="12">
         <v>3</v>
@@ -2290,19 +2290,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="160"/>
       <c r="B24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="12">
         <v>30</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="12">
         <v>30</v>
@@ -2314,13 +2314,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="160"/>
       <c r="B25" s="129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="132">
         <v>80</v>
@@ -2338,19 +2338,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="160"/>
       <c r="B26" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="132">
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="12">
         <v>0.8</v>
@@ -2362,10 +2362,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="160"/>
       <c r="B27" s="129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>2</v>
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="12">
         <v>2</v>
@@ -2386,19 +2386,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="161"/>
       <c r="B28" s="130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="133">
         <v>100</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="84">
         <v>100</v>
@@ -2410,127 +2410,127 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="104"/>
       <c r="G29" s="104"/>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="148"/>
       <c r="B30" s="124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="148"/>
       <c r="B31" s="124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="127">
         <v>50</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="148"/>
       <c r="B32" s="124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>41</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="148"/>
       <c r="B33" s="124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="127">
         <v>5</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="148"/>
       <c r="B34" s="125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="128"/>
       <c r="E34" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="149"/>
       <c r="B35" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="119">
         <v>0.01</v>
       </c>
       <c r="E35" s="118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="22">
         <v>0.01</v>
@@ -2542,37 +2542,37 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
       <c r="B36" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="22">
         <v>0.05</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="150"/>
       <c r="B37" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="107">
         <v>20</v>
       </c>
       <c r="E37" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" s="107">
         <v>20</v>
@@ -2584,21 +2584,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="57">
         <v>0.01</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="57">
         <v>0.01</v>
@@ -2610,91 +2610,91 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="163"/>
       <c r="B39" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="26">
         <v>0.1</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="164"/>
       <c r="B40" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="66">
         <v>20</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="112"/>
       <c r="F41" s="111"/>
       <c r="G41" s="111"/>
       <c r="H41" s="111"/>
     </row>
-    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="145"/>
       <c r="B42" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="E42" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="145"/>
       <c r="B43" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="28">
         <v>0.01</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="16">
         <v>0.01</v>
@@ -2706,97 +2706,97 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145"/>
       <c r="B44" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="16">
         <v>0.05</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="145"/>
       <c r="B45" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="145"/>
       <c r="B46" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="145"/>
       <c r="B47" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="146"/>
       <c r="B48" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="D48" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="116" t="s">
         <v>132</v>
-      </c>
-      <c r="D48" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="116" t="s">
-        <v>133</v>
       </c>
       <c r="F48" s="115"/>
       <c r="G48" s="115"/>
       <c r="H48" s="115"/>
     </row>
-    <row r="49" spans="4:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="42"/>
       <c r="E49" s="43"/>
     </row>
@@ -2822,76 +2822,76 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="70.88671875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="54.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="45" customWidth="1"/>
     <col min="6" max="6" width="26" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="39"/>
+    <col min="7" max="7" width="30.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="D2" s="52">
         <f>parameters!D7</f>
         <v>2</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="49" t="str">
         <f>parameters!D8</f>
@@ -2902,51 +2902,51 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>parameters!D10</f>
         <v>mzML</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="158"/>
       <c r="B6" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="61" t="str">
         <f>parameters!D11</f>
@@ -2957,79 +2957,79 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>142</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163"/>
       <c r="B8" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="163"/>
       <c r="B9" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="164"/>
       <c r="B10" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
     </row>
-    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="72" t="str">
         <f>parameters!B13</f>
@@ -3051,9 +3051,9 @@
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="70" t="str">
         <f>parameters!B14</f>
@@ -3081,7 +3081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="152"/>
       <c r="B13" s="8" t="str">
         <f>parameters!B16</f>
@@ -3109,7 +3109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="153"/>
       <c r="B14" s="81" t="str">
         <f>parameters!B17</f>
@@ -3137,9 +3137,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="77" t="str">
         <f>parameters!B20</f>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="161"/>
       <c r="B16" s="84" t="str">
         <f>parameters!B28</f>
@@ -3192,7 +3192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -135,9 +135,6 @@
     <t>Analysis step</t>
   </si>
   <si>
-    <t>Intensity cutoff for the monoisotopic mass in each scan also known as instrument noise level</t>
-  </si>
-  <si>
     <t>Reference file location</t>
   </si>
   <si>
@@ -279,16 +276,10 @@
     <t>Peak analysis and data reduction</t>
   </si>
   <si>
-    <t>Retention time correction and peak alignment</t>
-  </si>
-  <si>
     <t>Generate peaklist for individual file</t>
   </si>
   <si>
     <t>Perform gap-filling for the aligned peak table</t>
-  </si>
-  <si>
-    <t>Generate the aligned peak table</t>
   </si>
   <si>
     <t>Mass accuracy to cluster m/zs and produce extracted ion chromatograms (XICs) (Da)</t>
@@ -400,12 +391,6 @@
   </si>
   <si>
     <t>Parameter ID</t>
-  </si>
-  <si>
-    <t>Minimum frequency of the reoccurring reference peaks in the reference samples (%)</t>
-  </si>
-  <si>
-    <t>Reference samples to detect reoccurring reference peaks for RT correction</t>
   </si>
   <si>
     <t>Annotate peaks from individual peaklists using a reference database</t>
@@ -529,9 +514,6 @@
   </si>
   <si>
     <t>/path/to/folder</t>
-  </si>
-  <si>
-    <t>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotoplogues with lower mass, you may use negative values for this parameter.</t>
   </si>
   <si>
     <r>
@@ -578,6 +560,24 @@
   </si>
   <si>
     <t>Number of processing threads</t>
+  </si>
+  <si>
+    <t>Retention time correction, peak alignment and aligned peaks corrolations</t>
+  </si>
+  <si>
+    <t>Generate the aligned peak table and create aligned peaks correlation lists</t>
+  </si>
+  <si>
+    <t>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotopologues with lower mass, you may use negative values for this parameter.</t>
+  </si>
+  <si>
+    <t>Reference samples to detect recurring reference peaks for RT correction</t>
+  </si>
+  <si>
+    <t>Minimum frequency of the recurring reference peaks in the reference samples (%)</t>
+  </si>
+  <si>
+    <t>Intensity cutoff for the most abundant isotopologue in each scan also known as instrument noise level</t>
   </si>
 </sst>
 </file>
@@ -1778,9 +1778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1801,16 +1801,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="140" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>10</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
@@ -1848,13 +1848,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -1866,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -1902,13 +1902,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -1920,13 +1920,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D7" s="95">
         <v>2</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
@@ -1934,16 +1934,16 @@
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="156" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="49"/>
@@ -1956,13 +1956,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1974,13 +1974,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1992,10 +1992,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="61"/>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="154" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B12" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="D12" s="91">
         <v>500</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="91">
         <v>500</v>
@@ -2028,19 +2028,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="155"/>
       <c r="B13" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" s="99">
         <v>1.003354835336</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="101"/>
@@ -2048,19 +2048,19 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="70">
         <v>0.01</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="70">
         <v>0.01</v>
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8">
         <v>0.05</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="8">
         <v>0.05</v>
@@ -2102,13 +2102,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F16" s="8">
         <v>12</v>
@@ -2126,13 +2126,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8">
         <v>0.05</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="8">
         <v>0.05</v>
@@ -2150,13 +2150,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D18" s="81">
         <v>1</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" s="81">
         <v>2</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="77" t="s">
         <v>33</v>
@@ -2200,13 +2200,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="12">
         <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F20" s="12">
         <v>50</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="13">
         <v>1000</v>
@@ -2248,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D22" s="12">
         <v>30</v>
@@ -2272,13 +2272,13 @@
         <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D23" s="12">
         <v>3</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="12">
         <v>3</v>
@@ -2293,16 +2293,16 @@
     <row r="24" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="160"/>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24" s="12">
         <v>30</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="12">
         <v>30</v>
@@ -2317,10 +2317,10 @@
     <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="160"/>
       <c r="B25" s="129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="132">
         <v>80</v>
@@ -2341,10 +2341,10 @@
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="160"/>
       <c r="B26" s="129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="132">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="160"/>
       <c r="B27" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>2</v>
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="12">
         <v>2</v>
@@ -2389,16 +2389,16 @@
     <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="161"/>
       <c r="B28" s="130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="133">
         <v>100</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F28" s="84">
         <v>100</v>
@@ -2412,19 +2412,19 @@
     </row>
     <row r="29" spans="1:8" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="147" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B29" s="123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="126" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29" s="104"/>
       <c r="G29" s="104"/>
@@ -2433,16 +2433,16 @@
     <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="148"/>
       <c r="B30" s="124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -2451,16 +2451,16 @@
     <row r="31" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="148"/>
       <c r="B31" s="124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D31" s="127">
         <v>50</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -2469,16 +2469,16 @@
     <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="148"/>
       <c r="B32" s="124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -2487,16 +2487,16 @@
     <row r="33" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="148"/>
       <c r="B33" s="124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="127">
         <v>5</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
@@ -2505,14 +2505,14 @@
     <row r="34" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="148"/>
       <c r="B34" s="125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="128"/>
       <c r="E34" s="122" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -2521,16 +2521,16 @@
     <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="149"/>
       <c r="B35" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="119">
         <v>0.01</v>
       </c>
       <c r="E35" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="22">
         <v>0.01</v>
@@ -2545,16 +2545,16 @@
     <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
       <c r="B36" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="22">
         <v>0.05</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
@@ -2563,16 +2563,16 @@
     <row r="37" spans="1:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="150"/>
       <c r="B37" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="107">
         <v>20</v>
       </c>
       <c r="E37" s="108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="107">
         <v>20</v>
@@ -2586,19 +2586,19 @@
     </row>
     <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="162" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" s="57">
         <v>0.01</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="57">
         <v>0.01</v>
@@ -2613,16 +2613,16 @@
     <row r="39" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="163"/>
       <c r="B39" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="26">
         <v>0.1</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -2631,16 +2631,16 @@
     <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="164"/>
       <c r="B40" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D40" s="66">
         <v>20</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
@@ -2648,16 +2648,16 @@
     </row>
     <row r="41" spans="1:8" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="144" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E41" s="112"/>
       <c r="F41" s="111"/>
@@ -2667,16 +2667,16 @@
     <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="145"/>
       <c r="B42" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E42" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -2685,16 +2685,16 @@
     <row r="43" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="145"/>
       <c r="B43" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D43" s="28">
         <v>0.01</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="16">
         <v>0.01</v>
@@ -2709,16 +2709,16 @@
     <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145"/>
       <c r="B44" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" s="16">
         <v>0.05</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -2727,16 +2727,16 @@
     <row r="45" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="145"/>
       <c r="B45" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -2745,10 +2745,10 @@
     <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="145"/>
       <c r="B46" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>33</v>
@@ -2763,10 +2763,10 @@
     <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="145"/>
       <c r="B47" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>33</v>
@@ -2781,16 +2781,16 @@
     <row r="48" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="146"/>
       <c r="B48" s="113" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C48" s="114" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D48" s="115" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="116" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F48" s="115"/>
       <c r="G48" s="115"/>
@@ -2822,7 +2822,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2843,16 +2843,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>10</v>
@@ -2870,14 +2870,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D2" s="52">
         <f>parameters!D7</f>
         <v>2</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="49" t="str">
         <f>parameters!D8</f>
@@ -2908,14 +2908,14 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2927,14 +2927,14 @@
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>parameters!D10</f>
         <v>mzML</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2946,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="61" t="str">
         <f>parameters!D11</f>
@@ -2959,16 +2959,16 @@
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
@@ -2978,13 +2978,13 @@
     <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163"/>
       <c r="B8" s="24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
@@ -2994,16 +2994,16 @@
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="163"/>
       <c r="B9" s="24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -3012,16 +3012,16 @@
     <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="164"/>
       <c r="B10" s="64" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B11" s="72" t="str">
         <f>parameters!B13</f>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C11" s="138" t="str">
         <f>parameters!C13</f>
-        <v>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotoplogues with lower mass, you may use negative values for this parameter.</v>
+        <v>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotopologues with lower mass, you may use negative values for this parameter.</v>
       </c>
       <c r="D11" s="74">
         <f>parameters!D13</f>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="70" t="str">
         <f>parameters!B14</f>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="77" t="str">
         <f>parameters!B20</f>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="163">
   <si>
     <t>mzML</t>
   </si>
   <si>
-    <t>Intensity height threshold for the chromatographic peak</t>
-  </si>
-  <si>
     <t>Minimum S/N for chromatographic peak</t>
   </si>
   <si>
@@ -279,12 +276,6 @@
     <t>Generate peaklist for individual file</t>
   </si>
   <si>
-    <t>Perform gap-filling for the aligned peak table</t>
-  </si>
-  <si>
-    <t>Mass accuracy to cluster m/zs and produce extracted ion chromatograms (XICs) (Da)</t>
-  </si>
-  <si>
     <t>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>Maximum retention time deviation (min)</t>
   </si>
   <si>
-    <t>Mass accuracy to cluster integrated m/z values among multiple samples (Da)</t>
-  </si>
-  <si>
     <t>50-100</t>
   </si>
   <si>
@@ -358,9 +346,6 @@
   </si>
   <si>
     <t>"YES" or "NO" (When "YES", PARAM0029 must be "YES", and fill out PARAM0030-PARAM0037)</t>
-  </si>
-  <si>
-    <t>Use corrected retention times to minimize RT fluctuations in peak annotation</t>
   </si>
   <si>
     <t>Data import and export (required)</t>
@@ -381,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Smoothing window (number of scans for smoothing)</t>
-  </si>
-  <si>
     <t>Parameter range</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
   </si>
   <si>
     <t>Parameter ID</t>
-  </si>
-  <si>
-    <t>Annotate peaks from individual peaklists using a reference database</t>
   </si>
   <si>
     <t>"All" OR a list of semicolon separated  of selected samples including their extensions with no extra space (case sensitive)</t>
@@ -432,9 +411,6 @@
     <t>Peak annotation on individual peaklists using a reference database of m/z and RT</t>
   </si>
   <si>
-    <t>Gap-filling on the peak table</t>
-  </si>
-  <si>
     <t>PARAM0048</t>
   </si>
   <si>
@@ -457,9 +433,6 @@
   </si>
   <si>
     <t>Perform sample-centric annotation</t>
-  </si>
-  <si>
-    <t>Employ IPA for targeted analysis (Applicable only for the 'IPA_TargetedAnalysis' module)</t>
   </si>
   <si>
     <t>≥ 1 (integer) (Fill this cell in case you selected "YES" for PARAM0019)</t>
@@ -556,9 +529,6 @@
     <t>Pairing 12C/13C isotopologues in the mass spectra level</t>
   </si>
   <si>
-    <t>1-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow. However, it may introduce some errors, too.</t>
-  </si>
-  <si>
     <t>Number of processing threads</t>
   </si>
   <si>
@@ -578,6 +548,60 @@
   </si>
   <si>
     <t>Intensity cutoff for the most abundant isotopologue in each scan also known as instrument noise level</t>
+  </si>
+  <si>
+    <t>/path/to/folder/IDSL.IPA</t>
+  </si>
+  <si>
+    <t>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</t>
+  </si>
+  <si>
+    <t>Intensity height threshold for chromatographic peaks</t>
+  </si>
+  <si>
+    <t>Use corrected retention times to minimize RT fluctuations for the peak annotation workflow</t>
+  </si>
+  <si>
+    <t>0-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow. However, it may introduce some errors, too.</t>
+  </si>
+  <si>
+    <t>Mass accuracy to cluster integrated m/z values across multiple samples (Da)</t>
+  </si>
+  <si>
+    <t>Smoothing window (number of MS1 scans)</t>
+  </si>
+  <si>
+    <t>Perform targeted analysis (Applicable only for the 'IPA_TargetedAnalysis' module)</t>
+  </si>
+  <si>
+    <t>Gap-filling on the aligned peak tables</t>
+  </si>
+  <si>
+    <t>Perform gap-filling for the aligned peak tables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annotate peaks from individual peaklists using a reference database of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m/z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-RT-name</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -587,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +676,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1244,9 +1275,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1488,6 +1516,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1778,9 +1809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1820,7 @@
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
     <col min="4" max="4" width="72" style="44" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="67" style="45" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="44" customWidth="1"/>
     <col min="7" max="7" width="32" style="44" customWidth="1"/>
     <col min="8" max="8" width="30" style="44" customWidth="1"/>
@@ -1798,152 +1829,152 @@
   <sheetData>
     <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>115</v>
+        <v>7</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>109</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
-        <v>81</v>
+      <c r="A2" s="140" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="141"/>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
-      <c r="B7" s="93" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="94">
+        <v>2</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="95">
-        <v>2</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="49"/>
@@ -1951,51 +1982,51 @@
       <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="158"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="61"/>
@@ -2003,64 +2034,64 @@
       <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="90">
+        <v>500</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="90">
+        <v>500</v>
+      </c>
+      <c r="G12" s="90">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="154"/>
+      <c r="B13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="98">
+        <v>1.003354835336</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="91">
-        <v>500</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="91">
-        <v>500</v>
-      </c>
-      <c r="G12" s="91">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="91">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
-      <c r="B13" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="99">
-        <v>1.003354835336</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="70">
         <v>0.01</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="70">
         <v>0.01</v>
@@ -2073,18 +2104,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8">
         <v>0.05</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="8">
         <v>0.05</v>
@@ -2097,18 +2128,18 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F16" s="8">
         <v>12</v>
@@ -2121,18 +2152,18 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="8">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8">
         <v>0.05</v>
@@ -2145,18 +2176,18 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="153"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D18" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F18" s="81">
         <v>2</v>
@@ -2169,44 +2200,44 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
-        <v>82</v>
+      <c r="A19" s="158" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="159"/>
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="12">
         <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F20" s="12">
         <v>50</v>
@@ -2219,18 +2250,18 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D21" s="13">
         <v>1000</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="13">
         <v>1000</v>
@@ -2243,18 +2274,18 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D22" s="12">
         <v>30</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="12">
         <v>30</v>
@@ -2267,18 +2298,18 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D23" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F23" s="12">
         <v>3</v>
@@ -2291,18 +2322,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="120" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="12">
         <v>30</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="12">
         <v>30</v>
@@ -2315,18 +2346,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="129" t="s">
-        <v>42</v>
+      <c r="A25" s="159"/>
+      <c r="B25" s="128" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="132">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D25" s="131">
+        <v>100</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="12">
         <v>80</v>
@@ -2339,18 +2370,18 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="129" t="s">
-        <v>43</v>
+      <c r="A26" s="159"/>
+      <c r="B26" s="128" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="132">
+        <v>75</v>
+      </c>
+      <c r="D26" s="131">
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="12">
         <v>0.8</v>
@@ -2363,18 +2394,18 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="129" t="s">
-        <v>44</v>
+      <c r="A27" s="159"/>
+      <c r="B27" s="128" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="131">
         <v>2</v>
       </c>
-      <c r="D27" s="132">
-        <v>2</v>
-      </c>
       <c r="E27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="12">
         <v>2</v>
@@ -2387,18 +2418,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161"/>
-      <c r="B28" s="130" t="s">
-        <v>45</v>
+      <c r="A28" s="160"/>
+      <c r="B28" s="129" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="133">
+        <v>91</v>
+      </c>
+      <c r="D28" s="132">
         <v>100</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="84">
         <v>100</v>
@@ -2411,126 +2442,126 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
+      <c r="A29" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
-      <c r="B30" s="124" t="s">
-        <v>46</v>
+      <c r="A30" s="147"/>
+      <c r="B30" s="123" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>138</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
-      <c r="B31" s="124" t="s">
-        <v>47</v>
+      <c r="A31" s="147"/>
+      <c r="B31" s="123" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="127">
+        <v>150</v>
+      </c>
+      <c r="D31" s="126">
         <v>50</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="124" t="s">
-        <v>48</v>
+      <c r="A32" s="147"/>
+      <c r="B32" s="123" t="s">
+        <v>47</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
-      <c r="B33" s="124" t="s">
-        <v>49</v>
+      <c r="A33" s="147"/>
+      <c r="B33" s="123" t="s">
+        <v>48</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="127">
+        <v>90</v>
+      </c>
+      <c r="D33" s="126">
         <v>5</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148"/>
-      <c r="B34" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="122" t="s">
-        <v>109</v>
+      <c r="A34" s="147"/>
+      <c r="B34" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="127"/>
+      <c r="E34" s="121" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="149"/>
-      <c r="B35" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="119">
+      <c r="A35" s="148"/>
+      <c r="B35" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="118">
         <v>0.01</v>
       </c>
-      <c r="E35" s="118" t="s">
-        <v>64</v>
+      <c r="E35" s="117" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="22">
         <v>0.01</v>
@@ -2543,62 +2574,62 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149"/>
+      <c r="A36" s="148"/>
       <c r="B36" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="117" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="22">
         <v>0.05</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="150"/>
-      <c r="B37" s="105" t="s">
+      <c r="A37" s="149"/>
+      <c r="B37" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="106">
+        <v>20</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="106">
+        <v>20</v>
+      </c>
+      <c r="G37" s="106">
+        <v>20</v>
+      </c>
+      <c r="H37" s="106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="107">
-        <v>20</v>
-      </c>
-      <c r="E37" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="107">
-        <v>20</v>
-      </c>
-      <c r="G37" s="107">
-        <v>20</v>
-      </c>
-      <c r="H37" s="107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>55</v>
-      </c>
       <c r="C38" s="56" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D38" s="57">
         <v>0.01</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="57">
         <v>0.01</v>
@@ -2611,90 +2642,90 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
+      <c r="A39" s="162"/>
       <c r="B39" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="26">
         <v>0.1</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="164"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D40" s="66">
         <v>20</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="109" t="s">
+      <c r="A41" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="111"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+    </row>
+    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="144"/>
+      <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-    </row>
-    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
-      <c r="B42" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="C42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="E42" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
+      <c r="A43" s="144"/>
       <c r="B43" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" s="28">
         <v>0.01</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="16">
         <v>0.01</v>
@@ -2707,94 +2738,94 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
+      <c r="A44" s="144"/>
       <c r="B44" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="16">
         <v>0.05</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
+      <c r="A45" s="144"/>
       <c r="B45" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146"/>
-      <c r="B48" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
     </row>
     <row r="49" spans="4:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="42"/>
@@ -2822,7 +2853,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2840,58 +2871,58 @@
   <sheetData>
     <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D2" s="52">
         <f>parameters!D7</f>
         <v>2</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
-        <v>112</v>
+      <c r="A3" s="155" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="49" t="str">
         <f>parameters!D8</f>
@@ -2903,54 +2934,54 @@
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="156"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>parameters!D10</f>
         <v>mzML</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="61" t="str">
         <f>parameters!D11</f>
-        <v>/path/to/folder</v>
+        <v>/path/to/folder/IDSL.IPA</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="61"/>
@@ -2958,17 +2989,17 @@
       <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
-        <v>135</v>
+      <c r="A7" s="165" t="s">
+        <v>126</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>148</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
@@ -2976,15 +3007,15 @@
       <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
@@ -2992,50 +3023,50 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="164"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="64" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
-        <v>150</v>
+      <c r="A11" s="167" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="72" t="str">
         <f>parameters!B13</f>
         <v>PARAM0012</v>
       </c>
-      <c r="C11" s="138" t="str">
+      <c r="C11" s="137" t="str">
         <f>parameters!C13</f>
         <v>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotopologues with lower mass, you may use negative values for this parameter.</v>
       </c>
@@ -3052,22 +3083,22 @@
       <c r="H11" s="73"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="167" t="s">
-        <v>37</v>
+      <c r="A12" s="166" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="70" t="str">
         <f>parameters!B14</f>
         <v>PARAM0013</v>
       </c>
-      <c r="C12" s="134" t="str">
+      <c r="C12" s="133" t="str">
         <f>parameters!C14</f>
-        <v>Mass accuracy to cluster m/zs and produce extracted ion chromatograms (XICs) (Da)</v>
+        <v>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</v>
       </c>
       <c r="D12" s="70">
         <f>parameters!D14</f>
         <v>0.01</v>
       </c>
-      <c r="E12" s="134" t="str">
+      <c r="E12" s="133" t="str">
         <f>parameters!E14</f>
         <v>≥ 0.0001</v>
       </c>
@@ -3082,20 +3113,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="8" t="str">
         <f>parameters!B16</f>
         <v>PARAM0015</v>
       </c>
-      <c r="C13" s="135" t="str">
+      <c r="C13" s="134" t="str">
         <f>parameters!C16</f>
-        <v>Smoothing window (number of scans for smoothing)</v>
+        <v>Smoothing window (number of MS1 scans)</v>
       </c>
       <c r="D13" s="8">
         <f>parameters!D16</f>
         <v>12</v>
       </c>
-      <c r="E13" s="135" t="str">
+      <c r="E13" s="134" t="str">
         <f>parameters!E16</f>
         <v>≥ 5</v>
       </c>
@@ -3110,20 +3141,20 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="81" t="str">
         <f>parameters!B17</f>
         <v>PARAM0017</v>
       </c>
-      <c r="C14" s="136" t="str">
+      <c r="C14" s="135" t="str">
         <f>parameters!C17</f>
         <v>Peak tailing/fronting resolving power</v>
       </c>
       <c r="D14" s="81">
         <f>parameters!D17</f>
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="136" t="str">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="135" t="str">
         <f>parameters!E17</f>
         <v>0-0.05 (Select 0 to skip this module)</v>
       </c>
@@ -3138,14 +3169,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165" t="s">
-        <v>82</v>
+      <c r="A15" s="164" t="s">
+        <v>81</v>
       </c>
       <c r="B15" s="77" t="str">
         <f>parameters!B20</f>
         <v>PARAM0020</v>
       </c>
-      <c r="C15" s="139" t="str">
+      <c r="C15" s="138" t="str">
         <f>parameters!C20</f>
         <v>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis</v>
       </c>
@@ -3165,12 +3196,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="161"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="84" t="str">
         <f>parameters!B28</f>
         <v>PARAM0028</v>
       </c>
-      <c r="C16" s="137" t="str">
+      <c r="C16" s="136" t="str">
         <f>parameters!C28</f>
         <v>Number of points to smooth individual chromatographic peaks using cubic spline method to calculate ancillary chromatography parameters</v>
       </c>
@@ -3178,7 +3209,7 @@
         <f>parameters!D28</f>
         <v>100</v>
       </c>
-      <c r="E16" s="137" t="str">
+      <c r="E16" s="136" t="str">
         <f>parameters!E28</f>
         <v>11-1000 (integer) (0 to skip calculating ancillary chromatography parameters)</v>
       </c>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
   <si>
     <t>mzML</t>
   </si>
@@ -602,6 +602,9 @@
       </rPr>
       <t>-RT-name</t>
     </r>
+  </si>
+  <si>
+    <t>Github wiki link</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,6 +1440,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1518,7 +1524,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1807,27 +1813,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="72" style="44" customWidth="1"/>
-    <col min="5" max="5" width="67" style="45" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="32" style="44" customWidth="1"/>
-    <col min="8" max="8" width="30" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
+    <col min="4" max="5" width="72" style="44" customWidth="1"/>
+    <col min="6" max="6" width="67" style="45" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="32" style="44" customWidth="1"/>
+    <col min="9" max="9" width="30" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
@@ -1840,21 +1846,24 @@
       <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1866,15 +1875,16 @@
       <c r="D2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="88"/>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
+      <c r="I2" s="88"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="142"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1884,15 +1894,16 @@
       <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="142"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1902,15 +1913,16 @@
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="142"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1920,15 +1932,16 @@
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1938,15 +1951,16 @@
       <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="143"/>
       <c r="B7" s="92" t="s">
         <v>14</v>
       </c>
@@ -1956,15 +1970,16 @@
       <c r="D7" s="94">
         <v>2</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="94"/>
       <c r="G7" s="94"/>
       <c r="H7" s="94"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155" t="s">
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="156" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -1976,13 +1991,14 @@
       <c r="D8" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:9" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="157"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1992,15 +2008,16 @@
       <c r="D9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="157"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2010,15 +2027,16 @@
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="157"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="158"/>
       <c r="B11" s="59" t="s">
         <v>18</v>
       </c>
@@ -2028,13 +2046,14 @@
       <c r="D11" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="154" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="89" t="s">
@@ -2046,21 +2065,22 @@
       <c r="D12" s="90">
         <v>500</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="90">
+      <c r="G12" s="90">
         <v>500</v>
       </c>
-      <c r="G12" s="90">
+      <c r="H12" s="90">
         <v>1000</v>
       </c>
-      <c r="H12" s="90">
+      <c r="I12" s="90">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154"/>
+    <row r="13" spans="1:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="155"/>
       <c r="B13" s="96" t="s">
         <v>20</v>
       </c>
@@ -2070,15 +2090,16 @@
       <c r="D13" s="98">
         <v>1.003354835336</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="100"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150" t="s">
+      <c r="I13" s="100"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="151" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="68" t="s">
@@ -2090,21 +2111,22 @@
       <c r="D14" s="70">
         <v>0.01</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="70">
+      <c r="G14" s="70">
         <v>0.01</v>
       </c>
-      <c r="G14" s="70">
+      <c r="H14" s="70">
         <v>2E-3</v>
       </c>
-      <c r="H14" s="70">
+      <c r="I14" s="70">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
+    <row r="15" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="152"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2114,11 +2136,9 @@
       <c r="D15" s="8">
         <v>0.05</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.05</v>
       </c>
       <c r="G15" s="8">
         <v>0.05</v>
@@ -2126,9 +2146,12 @@
       <c r="H15" s="8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
+      <c r="I15" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="152"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2138,21 +2161,22 @@
       <c r="D16" s="8">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>12</v>
-      </c>
-      <c r="G16" s="8">
-        <v>15</v>
       </c>
       <c r="H16" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
+      <c r="I16" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="152"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2162,11 +2186,9 @@
       <c r="D17" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.05</v>
       </c>
       <c r="G17" s="8">
         <v>0.05</v>
@@ -2174,9 +2196,12 @@
       <c r="H17" s="8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
+      <c r="I17" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="153"/>
       <c r="B18" s="79" t="s">
         <v>25</v>
       </c>
@@ -2186,21 +2211,22 @@
       <c r="D18" s="81">
         <v>0</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="81">
+      <c r="G18" s="81">
         <v>2</v>
-      </c>
-      <c r="G18" s="81">
-        <v>0</v>
       </c>
       <c r="H18" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="I18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="159" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="75" t="s">
@@ -2212,21 +2238,22 @@
       <c r="D19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77"/>
+      <c r="F19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="G19" s="77" t="s">
         <v>32</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>33</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
+      <c r="I19" s="77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="160"/>
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
@@ -2236,21 +2263,22 @@
       <c r="D20" s="12">
         <v>50</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <v>50</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
       </c>
       <c r="H20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="160"/>
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -2260,21 +2288,22 @@
       <c r="D21" s="13">
         <v>1000</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G21" s="13">
         <v>1000</v>
       </c>
-      <c r="G21" s="13">
+      <c r="H21" s="13">
         <v>10000</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I21" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
+    <row r="22" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="160"/>
       <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
@@ -2284,21 +2313,22 @@
       <c r="D22" s="12">
         <v>30</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>30</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>40</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
+    <row r="23" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="160"/>
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -2308,21 +2338,22 @@
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="12">
         <v>3</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2</v>
       </c>
       <c r="H23" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
+      <c r="I23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="160"/>
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -2332,11 +2363,9 @@
       <c r="D24" s="12">
         <v>30</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="12">
-        <v>30</v>
       </c>
       <c r="G24" s="12">
         <v>30</v>
@@ -2344,9 +2373,12 @@
       <c r="H24" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
+      <c r="I24" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="160"/>
       <c r="B25" s="128" t="s">
         <v>41</v>
       </c>
@@ -2356,11 +2388,9 @@
       <c r="D25" s="131">
         <v>100</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="131"/>
+      <c r="F25" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="F25" s="12">
-        <v>80</v>
       </c>
       <c r="G25" s="12">
         <v>80</v>
@@ -2368,9 +2398,12 @@
       <c r="H25" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="159"/>
+      <c r="I25" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" s="160"/>
       <c r="B26" s="128" t="s">
         <v>42</v>
       </c>
@@ -2380,11 +2413,9 @@
       <c r="D26" s="131">
         <v>1</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="131"/>
+      <c r="F26" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0.8</v>
       </c>
       <c r="G26" s="12">
         <v>0.8</v>
@@ -2392,9 +2423,12 @@
       <c r="H26" s="12">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
+      <c r="I26" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="160"/>
       <c r="B27" s="128" t="s">
         <v>43</v>
       </c>
@@ -2404,21 +2438,22 @@
       <c r="D27" s="131">
         <v>2</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="131"/>
+      <c r="F27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <v>2</v>
-      </c>
-      <c r="G27" s="12">
-        <v>5</v>
       </c>
       <c r="H27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="160"/>
+      <c r="I27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="161"/>
       <c r="B28" s="129" t="s">
         <v>44</v>
       </c>
@@ -2428,11 +2463,9 @@
       <c r="D28" s="132">
         <v>100</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="132"/>
+      <c r="F28" s="85" t="s">
         <v>92</v>
-      </c>
-      <c r="F28" s="84">
-        <v>100</v>
       </c>
       <c r="G28" s="84">
         <v>100</v>
@@ -2440,9 +2473,12 @@
       <c r="H28" s="84">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="146" t="s">
+      <c r="I28" s="84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="147" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="122" t="s">
@@ -2454,15 +2490,16 @@
       <c r="D29" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="125"/>
+      <c r="F29" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="103"/>
       <c r="G29" s="103"/>
       <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="147"/>
+      <c r="I29" s="103"/>
+    </row>
+    <row r="30" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="148"/>
       <c r="B30" s="123" t="s">
         <v>45</v>
       </c>
@@ -2472,15 +2509,16 @@
       <c r="D30" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="126"/>
+      <c r="F30" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="148"/>
       <c r="B31" s="123" t="s">
         <v>46</v>
       </c>
@@ -2490,15 +2528,16 @@
       <c r="D31" s="126">
         <v>50</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="126"/>
+      <c r="F31" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="148"/>
       <c r="B32" s="123" t="s">
         <v>47</v>
       </c>
@@ -2508,15 +2547,16 @@
       <c r="D32" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="126"/>
+      <c r="F32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="147"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="148"/>
       <c r="B33" s="123" t="s">
         <v>48</v>
       </c>
@@ -2526,15 +2566,16 @@
       <c r="D33" s="126">
         <v>5</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="126"/>
+      <c r="F33" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="148"/>
       <c r="B34" s="124" t="s">
         <v>49</v>
       </c>
@@ -2542,15 +2583,16 @@
         <v>39</v>
       </c>
       <c r="D34" s="127"/>
-      <c r="E34" s="121" t="s">
+      <c r="E34" s="127"/>
+      <c r="F34" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="148"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="149"/>
       <c r="B35" s="130" t="s">
         <v>50</v>
       </c>
@@ -2560,21 +2602,22 @@
       <c r="D35" s="118">
         <v>0.01</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="118"/>
+      <c r="F35" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="22">
+      <c r="G35" s="22">
         <v>0.01</v>
       </c>
-      <c r="G35" s="22">
+      <c r="H35" s="22">
         <v>2E-3</v>
       </c>
-      <c r="H35" s="22">
+      <c r="I35" s="22">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="148"/>
+    <row r="36" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="149"/>
       <c r="B36" s="21" t="s">
         <v>51</v>
       </c>
@@ -2584,15 +2627,16 @@
       <c r="D36" s="22">
         <v>0.05</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="150"/>
       <c r="B37" s="104" t="s">
         <v>53</v>
       </c>
@@ -2602,11 +2646,9 @@
       <c r="D37" s="106">
         <v>20</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="106"/>
+      <c r="F37" s="107" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" s="106">
-        <v>20</v>
       </c>
       <c r="G37" s="106">
         <v>20</v>
@@ -2614,9 +2656,12 @@
       <c r="H37" s="106">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161" t="s">
+      <c r="I37" s="106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="162" t="s">
         <v>160</v>
       </c>
       <c r="B38" s="55" t="s">
@@ -2628,21 +2673,22 @@
       <c r="D38" s="57">
         <v>0.01</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="57"/>
+      <c r="F38" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="57">
+      <c r="G38" s="57">
         <v>0.01</v>
       </c>
-      <c r="G38" s="57">
+      <c r="H38" s="57">
         <v>2E-3</v>
       </c>
-      <c r="H38" s="57">
+      <c r="I38" s="57">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
+    <row r="39" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="163"/>
       <c r="B39" s="24" t="s">
         <v>59</v>
       </c>
@@ -2652,15 +2698,16 @@
       <c r="D39" s="26">
         <v>0.1</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="163"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="164"/>
       <c r="B40" s="64" t="s">
         <v>66</v>
       </c>
@@ -2670,15 +2717,16 @@
       <c r="D40" s="66">
         <v>20</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="66"/>
+      <c r="F40" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="144" t="s">
         <v>116</v>
       </c>
       <c r="B41" s="108" t="s">
@@ -2690,13 +2738,14 @@
       <c r="D41" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
-    </row>
-    <row r="42" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="144"/>
+      <c r="I41" s="110"/>
+    </row>
+    <row r="42" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="145"/>
       <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
@@ -2706,15 +2755,16 @@
       <c r="D42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="145"/>
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -2724,21 +2774,22 @@
       <c r="D43" s="28">
         <v>0.01</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="16">
+      <c r="G43" s="16">
         <v>0.01</v>
       </c>
-      <c r="G43" s="16">
+      <c r="H43" s="16">
         <v>2E-3</v>
       </c>
-      <c r="H43" s="16">
+      <c r="I43" s="16">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="144"/>
+    <row r="44" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="145"/>
       <c r="B44" s="14" t="s">
         <v>70</v>
       </c>
@@ -2748,15 +2799,16 @@
       <c r="D44" s="16">
         <v>0.05</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="145"/>
       <c r="B45" s="14" t="s">
         <v>72</v>
       </c>
@@ -2766,15 +2818,16 @@
       <c r="D45" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="145"/>
       <c r="B46" s="14" t="s">
         <v>96</v>
       </c>
@@ -2784,15 +2837,16 @@
       <c r="D46" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="145"/>
       <c r="B47" s="14" t="s">
         <v>98</v>
       </c>
@@ -2802,15 +2856,16 @@
       <c r="D47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="145"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="146"/>
       <c r="B48" s="112" t="s">
         <v>117</v>
       </c>
@@ -2820,16 +2875,18 @@
       <c r="D48" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="115" t="s">
+      <c r="E48" s="114"/>
+      <c r="F48" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="F48" s="114"/>
       <c r="G48" s="114"/>
       <c r="H48" s="114"/>
-    </row>
-    <row r="49" spans="4:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="114"/>
+    </row>
+    <row r="49" spans="4:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2856,20 +2913,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" style="45" customWidth="1"/>
     <col min="6" max="6" width="26" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="7" max="7" width="30.33203125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
@@ -2895,7 +2952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
       <c r="B2" s="52" t="s">
         <v>14</v>
@@ -2914,8 +2971,8 @@
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="156" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -2933,8 +2990,8 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
+    <row r="4" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2952,8 +3009,8 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
+    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="157"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2971,8 +3028,8 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="158"/>
       <c r="B6" s="59" t="s">
         <v>18</v>
       </c>
@@ -2988,8 +3045,8 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165" t="s">
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="166" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="55" t="s">
@@ -3006,8 +3063,8 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="163"/>
       <c r="B8" s="24" t="s">
         <v>128</v>
       </c>
@@ -3022,8 +3079,8 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="163"/>
       <c r="B9" s="24" t="s">
         <v>135</v>
       </c>
@@ -3040,8 +3097,8 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="163"/>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="164"/>
       <c r="B10" s="64" t="s">
         <v>136</v>
       </c>
@@ -3058,8 +3115,8 @@
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
     </row>
-    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167" t="s">
+    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="140" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="72" t="str">
@@ -3075,15 +3132,15 @@
         <v>1.003354835336</v>
       </c>
       <c r="E11" s="73" t="str">
-        <f>parameters!E13</f>
+        <f>parameters!F13</f>
         <v>(Default = ∆C = 13C - 12C = 1.003354835336), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
       </c>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="166" t="s">
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="167" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="70" t="str">
@@ -3099,7 +3156,7 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="133" t="str">
-        <f>parameters!E14</f>
+        <f>parameters!F14</f>
         <v>≥ 0.0001</v>
       </c>
       <c r="F12" s="70">
@@ -3112,8 +3169,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="151"/>
+    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="152"/>
       <c r="B13" s="8" t="str">
         <f>parameters!B16</f>
         <v>PARAM0015</v>
@@ -3127,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="134" t="str">
-        <f>parameters!E16</f>
+        <f>parameters!F16</f>
         <v>≥ 5</v>
       </c>
       <c r="F13" s="8">
@@ -3140,8 +3197,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
+    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="153"/>
       <c r="B14" s="81" t="str">
         <f>parameters!B17</f>
         <v>PARAM0017</v>
@@ -3155,7 +3212,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="135" t="str">
-        <f>parameters!E17</f>
+        <f>parameters!F17</f>
         <v>0-0.05 (Select 0 to skip this module)</v>
       </c>
       <c r="F14" s="81">
@@ -3168,8 +3225,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164" t="s">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="165" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="77" t="str">
@@ -3195,8 +3252,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="160"/>
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="161"/>
       <c r="B16" s="84" t="str">
         <f>parameters!B28</f>
         <v>PARAM0028</v>
@@ -3210,7 +3267,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="136" t="str">
-        <f>parameters!E28</f>
+        <f>parameters!F28</f>
         <v>11-1000 (integer) (0 to skip calculating ancillary chromatography parameters)</v>
       </c>
       <c r="F16" s="84">
@@ -3223,7 +3280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
   <si>
     <t>mzML</t>
   </si>
   <si>
-    <t>Minimum S/N for chromatographic peak</t>
-  </si>
-  <si>
     <t>0-100</t>
   </si>
   <si>
@@ -132,15 +129,9 @@
     <t>Analysis step</t>
   </si>
   <si>
-    <t>Reference file location</t>
-  </si>
-  <si>
     <t>Chromatographic peak detection</t>
   </si>
   <si>
-    <t>Retention time correction method</t>
-  </si>
-  <si>
     <t>"RetentionIndex" or "Polynomial"</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>PARAM0036</t>
   </si>
   <si>
-    <t>Perform RT correction</t>
-  </si>
-  <si>
     <t>PARAM0037</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>≥ 0.01</t>
   </si>
   <si>
-    <t>10-100</t>
-  </si>
-  <si>
     <t>PARAM0040</t>
   </si>
   <si>
@@ -240,9 +225,6 @@
     <t>PARAM0044</t>
   </si>
   <si>
-    <t>≥ 2 (integer)</t>
-  </si>
-  <si>
     <t>PARAM0045</t>
   </si>
   <si>
@@ -273,18 +255,6 @@
     <t>Peak analysis and data reduction</t>
   </si>
   <si>
-    <t>Generate peaklist for individual file</t>
-  </si>
-  <si>
-    <t>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis</t>
-  </si>
-  <si>
-    <t>Output location (MS1 processed data)</t>
-  </si>
-  <si>
-    <t>Input data location (MS1 level HRMS data)</t>
-  </si>
-  <si>
     <t>Input HRMS data format</t>
   </si>
   <si>
@@ -333,9 +303,6 @@
     <t>"YES" OR "NO"(When "YES", fill out PARAM0038-PARAM0040)</t>
   </si>
   <si>
-    <t>"YES" OR "NO"(When "YES", fill out PARAM0041-PARAM0047)</t>
-  </si>
-  <si>
     <t>"YES" OR "NO" (When "YES", fill out PARAM0030-PARAM0034)</t>
   </si>
   <si>
@@ -349,21 +316,6 @@
   </si>
   <si>
     <t>Data import and export (required)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum number of scans having 12C/13C isotopologue pairs within the chromatographic peak </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(nIsoPair)</t>
-    </r>
   </si>
   <si>
     <t>Parameter range</t>
@@ -426,18 +378,12 @@
     <t>Maximum percentage of missing scans (gaps) on the top 80% of raw chromatographic peaks (%)</t>
   </si>
   <si>
-    <t>Rounding digit for mass spectral size reduction by removing [non-12C/13C] m/zs to accelerate calculation of peaklists</t>
-  </si>
-  <si>
     <t>Perform compound-centric annotation</t>
   </si>
   <si>
     <t>Perform sample-centric annotation</t>
   </si>
   <si>
-    <t>≥ 1 (integer) (Fill this cell in case you selected "YES" for PARAM0019)</t>
-  </si>
-  <si>
     <t>Targeted m/z and RT</t>
   </si>
   <si>
@@ -489,46 +435,6 @@
     <t>/path/to/folder</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(Default = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C = 13C - 12C = 1.003354835336), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>∆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S = 34S - 32S = 1.9957958356, or any numerical value</t>
-    </r>
-  </si>
-  <si>
-    <t>Pairing 12C/13C isotopologues in the mass spectra level</t>
-  </si>
-  <si>
     <t>Number of processing threads</t>
   </si>
   <si>
@@ -538,21 +444,9 @@
     <t>Generate the aligned peak table and create aligned peaks correlation lists</t>
   </si>
   <si>
-    <t>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotopologues with lower mass, you may use negative values for this parameter.</t>
-  </si>
-  <si>
-    <t>Reference samples to detect recurring reference peaks for RT correction</t>
-  </si>
-  <si>
     <t>Minimum frequency of the recurring reference peaks in the reference samples (%)</t>
   </si>
   <si>
-    <t>Intensity cutoff for the most abundant isotopologue in each scan also known as instrument noise level</t>
-  </si>
-  <si>
-    <t>/path/to/folder/IDSL.IPA</t>
-  </si>
-  <si>
     <t>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</t>
   </si>
   <si>
@@ -560,9 +454,6 @@
   </si>
   <si>
     <t>Use corrected retention times to minimize RT fluctuations for the peak annotation workflow</t>
-  </si>
-  <si>
-    <t>0-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow. However, it may introduce some errors, too.</t>
   </si>
   <si>
     <t>Mass accuracy to cluster integrated m/z values across multiple samples (Da)</t>
@@ -604,7 +495,235 @@
     </r>
   </si>
   <si>
-    <t>Github wiki link</t>
+    <t>Minimum S/N for chromatographic peak using baseline</t>
+  </si>
+  <si>
+    <t>Pairing ions in the mass spectra level</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Default = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C = 13C - 12C = 1.003354835336 to only find carbon-containing peaks), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S = 34S - 32S = 1.9957958356, or any numerical value</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/blob/main/Reference_masses_peak_annotation.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Defintion-Signal-to-Noise-Ratio#2-hypothetical-baseline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum number of scans having ion pairs within the chromatographic peak </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nIsoPair)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/nIsoPair-RCS</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Chromatogram-gaps-percentage-(missing-scans)</t>
+  </si>
+  <si>
+    <t>See Figure 3 in the main text</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Ion-Pairing</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/RPW</t>
+  </si>
+  <si>
+    <t>See Section S.2 in the Supporting Information of the manuscript</t>
+  </si>
+  <si>
+    <t>Graphical guide</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Retention-Index</t>
+  </si>
+  <si>
+    <t>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis to reconstruct baseline</t>
+  </si>
+  <si>
+    <t>Reference samples to detect recurring reference peaks for RT correction.</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Peak-tailing-fronting-resolving</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Peak-smoothing</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Extra-scans</t>
+  </si>
+  <si>
+    <t>See Figure S.3 in the Supporting Information of the manuscript</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO"(When "YES", fill out PARAM0041-PARAM0048)</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Targeted-IPA</t>
+  </si>
+  <si>
+    <t>/path/to/folder/MS1</t>
+  </si>
+  <si>
+    <t>Save extracted ion chromatogram (EIC) figures for individual files</t>
+  </si>
+  <si>
+    <t>Parallelization mode</t>
+  </si>
+  <si>
+    <t>Sample Mode</t>
+  </si>
+  <si>
+    <t>PARAM_PAR</t>
+  </si>
+  <si>
+    <t>Select "Sample Mode" or "Peak Mode"</t>
+  </si>
+  <si>
+    <t>≥ 1 (integer) (Fill this cell in case you selected "YES" for PARAM0019) Greater numbers are beneficial to generate more reproducible baselines.</t>
+  </si>
+  <si>
+    <t>≥ 1 (integer). Greater numbers are recommended to manage memories, but it may result with tiny errors.</t>
+  </si>
+  <si>
+    <t>See Figure S.13 in the Supporting Information of the manuscript</t>
+  </si>
+  <si>
+    <t>Perform RT correction using recurring endogenous markers as reference peaks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Retention time correction method. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RetentionIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method has better performance relative to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polynomial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method; but the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RetentionIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method may require more recurring endogenous markers for better performance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Generate peaklist for individual HRMS files</t>
+  </si>
+  <si>
+    <t>Reference file location address</t>
+  </si>
+  <si>
+    <t>Input data location address (MS1 level HRMS data)</t>
+  </si>
+  <si>
+    <t>Output location address (MS1 processed data)</t>
+  </si>
+  <si>
+    <t>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</t>
+  </si>
+  <si>
+    <t>Rounding digit for mass spectral size reduction by removing non-ion-paired m/z values to accelerate calculations</t>
+  </si>
+  <si>
+    <t>Noise intensity theshold for the dominant ion in individual chromatogram scans</t>
+  </si>
+  <si>
+    <t>"All" OR a list of semicolon separated of selected samples including their extensions with no extra space (case sensitive)</t>
+  </si>
+  <si>
+    <t>0-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow at cost of some errors.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +808,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -758,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1017,11 +1159,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,18 +1340,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,6 +1598,144 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,6 +1787,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1515,6 +1811,18 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="13" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,11 +1832,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1813,11 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1825,8 +2137,9 @@
     <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
-    <col min="4" max="5" width="72" style="44" customWidth="1"/>
-    <col min="6" max="6" width="67" style="45" customWidth="1"/>
+    <col min="4" max="4" width="72" style="44" customWidth="1"/>
+    <col min="5" max="5" width="67" style="45" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="44" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" style="44" customWidth="1"/>
     <col min="8" max="8" width="32" style="44" customWidth="1"/>
     <col min="9" max="9" width="30" style="44" customWidth="1"/>
@@ -1835,1078 +2148,1146 @@
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="139" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="E1" s="135" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="137" t="s">
+        <v>154</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
-        <v>80</v>
+      <c r="A2" s="183" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="138"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="184"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-    </row>
-    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="32" t="s">
-        <v>100</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="139"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="32" t="s">
-        <v>101</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="139"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="F5" s="139"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="32" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="171" t="s">
+        <v>163</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
-      <c r="B7" s="92" t="s">
+      <c r="A7" s="185"/>
+      <c r="B7" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="90">
+        <v>1</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="140"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="198" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="94">
-        <v>2</v>
-      </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="48" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+        <v>164</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="17" t="s">
-        <v>112</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="142"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="17" t="s">
-        <v>140</v>
-      </c>
+      <c r="E10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="142"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158"/>
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="200"/>
+      <c r="B11" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="174" t="str">
+        <f>CONCATENATE(D8, "/IDSL.IPA")</f>
+        <v>/path/to/folder/MS1/IDSL.IPA</v>
+      </c>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="201"/>
+      <c r="B12" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="143"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="196" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="61" t="s">
+      <c r="C13" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="86">
+        <v>500</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="208" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="86">
+        <v>500</v>
+      </c>
+      <c r="H13" s="86">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="197"/>
+      <c r="B14" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="94">
+        <v>1.003354835336</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="209"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="144"/>
+      <c r="G15" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="194"/>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="145"/>
+      <c r="G16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="194"/>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="8">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="8">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="194"/>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="195"/>
+      <c r="B19" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="77">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="77">
+        <v>1</v>
+      </c>
+      <c r="H19" s="77">
+        <v>1</v>
+      </c>
+      <c r="I19" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="203"/>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="12">
+        <v>100</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="12">
+        <v>100</v>
+      </c>
+      <c r="H21" s="12">
+        <v>100</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="203"/>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="147"/>
+      <c r="G22" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="203"/>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="12">
+        <v>30</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="12">
+        <v>30</v>
+      </c>
+      <c r="H23" s="12">
+        <v>40</v>
+      </c>
+      <c r="I23" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3</v>
+      </c>
+      <c r="H24" s="12">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="203"/>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="12">
+        <v>30</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="182"/>
+      <c r="G25" s="12">
+        <v>30</v>
+      </c>
+      <c r="H25" s="12">
+        <v>30</v>
+      </c>
+      <c r="I25" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="203"/>
+      <c r="B26" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="127">
+        <v>100</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="168" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="12">
+        <v>80</v>
+      </c>
+      <c r="H26" s="12">
+        <v>80</v>
+      </c>
+      <c r="I26" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="203"/>
+      <c r="B27" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="127">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-    </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="90">
-        <v>500</v>
-      </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="90">
-        <v>500</v>
-      </c>
-      <c r="H12" s="90">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="90">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="155"/>
-      <c r="B13" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="98">
-        <v>1.003354835336</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="69" t="s">
+      <c r="G27" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="162" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="203"/>
+      <c r="B28" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="127">
+        <v>2</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2</v>
+      </c>
+      <c r="H28" s="12">
+        <v>5</v>
+      </c>
+      <c r="I28" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="204"/>
+      <c r="B29" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="128">
+        <v>100</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="70">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="70">
-        <v>0.01</v>
-      </c>
-      <c r="H14" s="70">
-        <v>2E-3</v>
-      </c>
-      <c r="I14" s="70">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="8">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="8">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8">
-        <v>15</v>
-      </c>
-      <c r="I16" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="153"/>
-      <c r="B18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="81">
-        <v>0</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="81">
-        <v>2</v>
-      </c>
-      <c r="H18" s="81">
-        <v>0</v>
-      </c>
-      <c r="I18" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="159" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="77" t="s">
+      <c r="G29" s="80">
+        <v>100</v>
+      </c>
+      <c r="H29" s="80">
+        <v>100</v>
+      </c>
+      <c r="I29" s="80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="189" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160"/>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="12">
-        <v>50</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="12">
-        <v>50</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="160"/>
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="13">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="12">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="12">
-        <v>30</v>
-      </c>
-      <c r="H22" s="12">
-        <v>40</v>
-      </c>
-      <c r="I22" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
-      <c r="B23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="12">
-        <v>3</v>
-      </c>
-      <c r="H23" s="12">
-        <v>2</v>
-      </c>
-      <c r="I23" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="160"/>
-      <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="12">
-        <v>30</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="12">
-        <v>30</v>
-      </c>
-      <c r="H24" s="12">
-        <v>30</v>
-      </c>
-      <c r="I24" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="160"/>
-      <c r="B25" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="131">
-        <v>100</v>
-      </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="12">
-        <v>80</v>
-      </c>
-      <c r="H25" s="12">
-        <v>80</v>
-      </c>
-      <c r="I25" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="160"/>
-      <c r="B26" s="128" t="s">
+      <c r="E30" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="149"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+    </row>
+    <row r="31" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="190"/>
+      <c r="B31" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="131">
-        <v>1</v>
-      </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160"/>
-      <c r="B27" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="131">
-        <v>2</v>
-      </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="12">
-        <v>2</v>
-      </c>
-      <c r="H27" s="12">
-        <v>5</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="161"/>
-      <c r="B28" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="132">
-        <v>100</v>
-      </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="84">
-        <v>100</v>
-      </c>
-      <c r="H28" s="84">
-        <v>100</v>
-      </c>
-      <c r="I28" s="84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="125"/>
-      <c r="F29" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-    </row>
-    <row r="30" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="126" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
-      <c r="B31" s="123" t="s">
-        <v>46</v>
-      </c>
       <c r="C31" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="126">
-        <v>50</v>
-      </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="30" t="s">
-        <v>95</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D31" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="150"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
-      <c r="B32" s="123" t="s">
-        <v>47</v>
+    <row r="32" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="190"/>
+      <c r="B32" s="119" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="30" t="s">
-        <v>38</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D32" s="122">
+        <v>50</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="150"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="148"/>
-      <c r="B33" s="123" t="s">
-        <v>48</v>
+    <row r="33" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="190"/>
+      <c r="B33" s="119" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="126">
+        <v>174</v>
+      </c>
+      <c r="D33" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="190"/>
+      <c r="B34" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="122">
         <v>5</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="148"/>
-      <c r="B34" s="124" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="121" t="s">
-        <v>105</v>
+      <c r="E34" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="167" t="s">
+        <v>155</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="130" t="s">
+    <row r="35" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="190"/>
+      <c r="B35" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="123"/>
+      <c r="E35" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="151"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="191"/>
+      <c r="B36" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="152"/>
+      <c r="G36" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I36" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="191"/>
+      <c r="B37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="153"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="192"/>
+      <c r="B38" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="102">
+        <v>20</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="154"/>
+      <c r="G38" s="102">
+        <v>20</v>
+      </c>
+      <c r="H38" s="102">
+        <v>20</v>
+      </c>
+      <c r="I38" s="102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="205" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="118">
+      <c r="C39" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="53">
         <v>0.01</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="117" t="s">
+      <c r="E39" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="155"/>
+      <c r="G39" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I39" s="53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="206"/>
+      <c r="B40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="156"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="207"/>
+      <c r="B41" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="62">
+        <v>20</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="170" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+    </row>
+    <row r="43" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="187"/>
+      <c r="B43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="22">
+      <c r="C43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="187"/>
+      <c r="B44" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="28">
         <v>0.01</v>
       </c>
-      <c r="H35" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="I35" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="E44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="159"/>
+      <c r="G44" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="187"/>
+      <c r="B45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="16">
         <v>0.05</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="150"/>
-      <c r="B37" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="106">
-        <v>20</v>
-      </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="106">
-        <v>20</v>
-      </c>
-      <c r="H37" s="106">
-        <v>20</v>
-      </c>
-      <c r="I37" s="106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="57">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="57">
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="57">
-        <v>2E-3</v>
-      </c>
-      <c r="I38" s="57">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="164"/>
-      <c r="B40" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="66">
-        <v>20</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-    </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="144" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="110"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-    </row>
-    <row r="42" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
-      <c r="B42" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
-      <c r="B43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="I43" s="16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
-      <c r="B44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="145"/>
-      <c r="B45" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="E45" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="158"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="145"/>
+    <row r="46" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="187"/>
       <c r="B46" s="14" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="20" t="s">
         <v>31</v>
       </c>
+      <c r="E46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="158"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="145"/>
+      <c r="A47" s="187"/>
       <c r="B47" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="20" t="s">
         <v>31</v>
       </c>
+      <c r="E47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="158"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="146"/>
-      <c r="B48" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-    </row>
-    <row r="49" spans="4:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+    <row r="48" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="187"/>
+      <c r="B48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="158"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="188"/>
+      <c r="B49" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="160"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F28" r:id="rId1" location="2-hypothetical-baseline"/>
+    <hyperlink ref="F43" r:id="rId2"/>
+    <hyperlink ref="F24" r:id="rId3"/>
+    <hyperlink ref="F23" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F27" r:id="rId6"/>
+    <hyperlink ref="F34" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F41" r:id="rId11"/>
+    <hyperlink ref="F6" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2928,371 +3309,392 @@
   <sheetData>
     <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52" t="s">
+    </row>
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="210" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="211"/>
+      <c r="B3" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="88">
+        <f>parameters!D7</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="52">
-        <f>parameters!D7</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="C4" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="49" t="str">
+        <f>parameters!D8</f>
+        <v>/path/to/folder/MS1</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="215"/>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="49" t="str">
-        <f>parameters!D8</f>
-        <v>/path/to/folder</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="7" t="str">
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>parameters!D10</f>
-        <v>mzML</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="158"/>
-      <c r="B6" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="61" t="str">
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="215"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>parameters!D10</f>
+        <v>mzML</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="215"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="7" t="str">
         <f>parameters!D11</f>
-        <v>/path/to/folder/IDSL.IPA</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="55" t="s">
+        <v>/path/to/folder/MS1/IDSL.IPA</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="215"/>
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="216"/>
+      <c r="B9" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="213" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="206"/>
+      <c r="B11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="163"/>
-      <c r="B8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="163"/>
-      <c r="B9" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
-      <c r="B10" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-    </row>
-    <row r="11" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="72" t="str">
-        <f>parameters!B13</f>
+      <c r="B12" s="68" t="str">
+        <f>parameters!B14</f>
         <v>PARAM0012</v>
-      </c>
-      <c r="C11" s="137" t="str">
-        <f>parameters!C13</f>
-        <v>Mass difference to pair isotopologues. This function always pairs the more intense isotopologues with lower intense ones with higher mass; to pair with isotopologues with lower mass, you may use negative values for this parameter.</v>
-      </c>
-      <c r="D11" s="74">
-        <f>parameters!D13</f>
-        <v>1.003354835336</v>
-      </c>
-      <c r="E11" s="73" t="str">
-        <f>parameters!F13</f>
-        <v>(Default = ∆C = 13C - 12C = 1.003354835336), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
-      </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="70" t="str">
-        <f>parameters!B14</f>
-        <v>PARAM0013</v>
       </c>
       <c r="C12" s="133" t="str">
         <f>parameters!C14</f>
-        <v>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</v>
+        <v>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</v>
       </c>
       <c r="D12" s="70">
         <f>parameters!D14</f>
+        <v>1.003354835336</v>
+      </c>
+      <c r="E12" s="69" t="str">
+        <f>parameters!E14</f>
+        <v>(Default = ∆C = 13C - 12C = 1.003354835336 to only find carbon-containing peaks), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="214" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="66" t="str">
+        <f>parameters!B15</f>
+        <v>PARAM0013</v>
+      </c>
+      <c r="C13" s="129" t="str">
+        <f>parameters!C15</f>
+        <v>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</v>
+      </c>
+      <c r="D13" s="66">
+        <f>parameters!D15</f>
         <v>0.01</v>
       </c>
-      <c r="E12" s="133" t="str">
-        <f>parameters!F14</f>
+      <c r="E13" s="129" t="str">
+        <f>parameters!E15</f>
         <v>≥ 0.0001</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F13" s="66">
         <v>0.01</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G13" s="66">
         <v>2E-3</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H13" s="66">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="8" t="str">
-        <f>parameters!B16</f>
+    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="194"/>
+      <c r="B14" s="8" t="str">
+        <f>parameters!B17</f>
         <v>PARAM0015</v>
       </c>
-      <c r="C13" s="134" t="str">
-        <f>parameters!C16</f>
+      <c r="C14" s="130" t="str">
+        <f>parameters!C17</f>
         <v>Smoothing window (number of MS1 scans)</v>
       </c>
-      <c r="D13" s="8">
-        <f>parameters!D16</f>
+      <c r="D14" s="8">
+        <f>parameters!D17</f>
         <v>12</v>
       </c>
-      <c r="E13" s="134" t="str">
-        <f>parameters!F16</f>
+      <c r="E14" s="130" t="str">
+        <f>parameters!E17</f>
         <v>≥ 5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>15</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="153"/>
-      <c r="B14" s="81" t="str">
-        <f>parameters!B17</f>
+    <row r="15" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="195"/>
+      <c r="B15" s="77" t="str">
+        <f>parameters!B18</f>
         <v>PARAM0017</v>
       </c>
-      <c r="C14" s="135" t="str">
-        <f>parameters!C17</f>
+      <c r="C15" s="131" t="str">
+        <f>parameters!C18</f>
         <v>Peak tailing/fronting resolving power</v>
       </c>
-      <c r="D14" s="81">
-        <f>parameters!D17</f>
+      <c r="D15" s="77">
+        <f>parameters!D18</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="135" t="str">
-        <f>parameters!F17</f>
+      <c r="E15" s="131" t="str">
+        <f>parameters!E18</f>
         <v>0-0.05 (Select 0 to skip this module)</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F15" s="77">
         <v>0.05</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G15" s="77">
         <v>0.05</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H15" s="77">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="77" t="str">
-        <f>parameters!B20</f>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="212" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="73" t="str">
+        <f>parameters!B21</f>
         <v>PARAM0020</v>
       </c>
-      <c r="C15" s="138" t="str">
-        <f>parameters!C20</f>
-        <v>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis</v>
-      </c>
-      <c r="D15" s="77">
-        <f>parameters!D20</f>
+      <c r="C16" s="134" t="str">
+        <f>parameters!C21</f>
+        <v>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis to reconstruct baseline</v>
+      </c>
+      <c r="D16" s="73">
+        <f>parameters!D21</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="73">
         <v>50</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
-        <v>50</v>
-      </c>
-      <c r="G15" s="77">
+      <c r="G16" s="73">
         <v>0</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H16" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="161"/>
-      <c r="B16" s="84" t="str">
-        <f>parameters!B28</f>
+    <row r="17" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="204"/>
+      <c r="B17" s="80" t="str">
+        <f>parameters!B29</f>
         <v>PARAM0028</v>
       </c>
-      <c r="C16" s="136" t="str">
-        <f>parameters!C28</f>
+      <c r="C17" s="132" t="str">
+        <f>parameters!C29</f>
         <v>Number of points to smooth individual chromatographic peaks using cubic spline method to calculate ancillary chromatography parameters</v>
       </c>
-      <c r="D16" s="84">
-        <f>parameters!D28</f>
+      <c r="D17" s="80">
+        <f>parameters!D29</f>
         <v>100</v>
       </c>
-      <c r="E16" s="136" t="str">
-        <f>parameters!F28</f>
+      <c r="E17" s="132" t="str">
+        <f>parameters!E29</f>
         <v>11-1000 (integer) (0 to skip calculating ancillary chromatography parameters)</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F17" s="80">
         <v>100</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G17" s="80">
         <v>100</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H17" s="80">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+    <row r="18" spans="1:8" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
-  <si>
-    <t>mzML</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
   <si>
     <t>0-100</t>
   </si>
@@ -51,15 +48,6 @@
     <t>0.1-1</t>
   </si>
   <si>
-    <t>Recommended values for QToF instruments</t>
-  </si>
-  <si>
-    <t>Recommended values for Orbitrap Exactive instruments</t>
-  </si>
-  <si>
-    <t>Recommended values for Orbitrap Fusion instruments</t>
-  </si>
-  <si>
     <t>PARAM0004</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>PARAM0017</t>
   </si>
   <si>
-    <t>PARAM0018</t>
-  </si>
-  <si>
     <t>PARAM0019</t>
   </si>
   <si>
@@ -198,18 +183,9 @@
     <t>PARAM0029</t>
   </si>
   <si>
-    <t>The maximum absolute retention time deviation to remove redundant peaks (min)</t>
-  </si>
-  <si>
     <t>Retention time tolerance to detect common peaks (min)</t>
   </si>
   <si>
-    <t>≥ 0.0001</t>
-  </si>
-  <si>
-    <t>≥ 0.01</t>
-  </si>
-  <si>
     <t>PARAM0040</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>Peak tailing/fronting resolving power</t>
   </si>
   <si>
-    <t>Maximum ratio of 13C for the integrated spectra across the chromatographic peak (%) (Average R13C)</t>
-  </si>
-  <si>
     <t>Maximum ratio of peak width at half-height to peak width at the baseline (RPW)</t>
   </si>
   <si>
@@ -243,9 +216,6 @@
     <t>Perform recursive mass correction</t>
   </si>
   <si>
-    <t>Number of slices for the (m/z-RT) alignment</t>
-  </si>
-  <si>
     <t>RetentionIndex</t>
   </si>
   <si>
@@ -255,30 +225,15 @@
     <t>Peak analysis and data reduction</t>
   </si>
   <si>
-    <t>Input HRMS data format</t>
-  </si>
-  <si>
     <t>≥ 0 (integer)</t>
   </si>
   <si>
     <t>≥ 1 (integer)</t>
   </si>
   <si>
-    <t>It must be in *.xlsx format with the file extension. Three column headers with 'm/z', 'RT', 'name' must be available in the spreadsheet</t>
-  </si>
-  <si>
-    <t>Reference Peak tolerance for "RetentionIndex" to minimize local RT errors</t>
-  </si>
-  <si>
     <t>Number of points to smooth individual chromatographic peaks using cubic spline method to calculate ancillary chromatography parameters</t>
   </si>
   <si>
-    <t>11-1000 (integer) (0 to skip calculating ancillary chromatography parameters)</t>
-  </si>
-  <si>
-    <t>Mass error (Da)</t>
-  </si>
-  <si>
     <t>Maximum retention time deviation (min)</t>
   </si>
   <si>
@@ -288,18 +243,12 @@
     <t>PARAM0046</t>
   </si>
   <si>
-    <t>List of HRMS files to process</t>
-  </si>
-  <si>
     <t>PARAM0047</t>
   </si>
   <si>
     <t>"YES" OR "NO"(When "YES", fill out PARAM0011-PARAM0028)</t>
   </si>
   <si>
-    <t>"YES" OR "NO"(When "YES", fill out PARAM0029-PARAM0037)</t>
-  </si>
-  <si>
     <t>"YES" OR "NO"(When "YES", fill out PARAM0038-PARAM0040)</t>
   </si>
   <si>
@@ -312,9 +261,6 @@
     <t>1-10 (integer) (Fill out when PARAM0032 is "Polynomial")</t>
   </si>
   <si>
-    <t>"YES" or "NO" (When "YES", PARAM0029 must be "YES", and fill out PARAM0030-PARAM0037)</t>
-  </si>
-  <si>
     <t>Data import and export (required)</t>
   </si>
   <si>
@@ -336,33 +282,6 @@
     <t>Number of extra scans on the both sides of peak boundaries to fill</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Minimum ratio of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nIsoPair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> per number of available scans above 80% of peak height (%) (RCS)</t>
-    </r>
-  </si>
-  <si>
-    <t>Peak annotation on individual peaklists using a reference database of m/z and RT</t>
-  </si>
-  <si>
     <t>PARAM0048</t>
   </si>
   <si>
@@ -375,9 +294,6 @@
     <t>≥ 5</t>
   </si>
   <si>
-    <t>Maximum percentage of missing scans (gaps) on the top 80% of raw chromatographic peaks (%)</t>
-  </si>
-  <si>
     <t>Perform compound-centric annotation</t>
   </si>
   <si>
@@ -393,9 +309,6 @@
     <t>PARAM_RT</t>
   </si>
   <si>
-    <t>Fill out the `IPA_targeted` tab</t>
-  </si>
-  <si>
     <t>A vector of m/z values</t>
   </si>
   <si>
@@ -405,15 +318,9 @@
     <t>"YES" OR "NO"</t>
   </si>
   <si>
-    <t>Save EIC figures</t>
-  </si>
-  <si>
     <t>Save chromatographic characteristics table</t>
   </si>
   <si>
-    <t>PARAM_EIC</t>
-  </si>
-  <si>
     <t>PARAM_CCT</t>
   </si>
   <si>
@@ -426,9 +333,6 @@
     <t>c(0,0)</t>
   </si>
   <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0008)</t>
-  </si>
-  <si>
     <t>Pairing isotopologues in the mass spectra level</t>
   </si>
   <si>
@@ -438,31 +342,7 @@
     <t>Number of processing threads</t>
   </si>
   <si>
-    <t>Retention time correction, peak alignment and aligned peaks corrolations</t>
-  </si>
-  <si>
-    <t>Generate the aligned peak table and create aligned peaks correlation lists</t>
-  </si>
-  <si>
-    <t>Minimum frequency of the recurring reference peaks in the reference samples (%)</t>
-  </si>
-  <si>
-    <t>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</t>
-  </si>
-  <si>
-    <t>Intensity height threshold for chromatographic peaks</t>
-  </si>
-  <si>
-    <t>Use corrected retention times to minimize RT fluctuations for the peak annotation workflow</t>
-  </si>
-  <si>
-    <t>Mass accuracy to cluster integrated m/z values across multiple samples (Da)</t>
-  </si>
-  <si>
     <t>Smoothing window (number of MS1 scans)</t>
-  </si>
-  <si>
-    <t>Perform targeted analysis (Applicable only for the 'IPA_TargetedAnalysis' module)</t>
   </si>
   <si>
     <t>Gap-filling on the aligned peak tables</t>
@@ -493,9 +373,6 @@
       </rPr>
       <t>-RT-name</t>
     </r>
-  </si>
-  <si>
-    <t>Minimum S/N for chromatographic peak using baseline</t>
   </si>
   <si>
     <t>Pairing ions in the mass spectra level</t>
@@ -565,9 +442,6 @@
     <t>https://github.com/idslme/IDSL.IPA/wiki/Chromatogram-gaps-percentage-(missing-scans)</t>
   </si>
   <si>
-    <t>See Figure 3 in the main text</t>
-  </si>
-  <si>
     <t>https://github.com/idslme/IDSL.IPA/wiki/Ion-Pairing</t>
   </si>
   <si>
@@ -586,9 +460,6 @@
     <t>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis to reconstruct baseline</t>
   </si>
   <si>
-    <t>Reference samples to detect recurring reference peaks for RT correction.</t>
-  </si>
-  <si>
     <t>https://github.com/idslme/IDSL.IPA/wiki/Peak-tailing-fronting-resolving</t>
   </si>
   <si>
@@ -604,15 +475,9 @@
     <t>"YES" OR "NO"(When "YES", fill out PARAM0041-PARAM0048)</t>
   </si>
   <si>
-    <t>https://github.com/idslme/IDSL.IPA/wiki/Targeted-IPA</t>
-  </si>
-  <si>
     <t>/path/to/folder/MS1</t>
   </si>
   <si>
-    <t>Save extracted ion chromatogram (EIC) figures for individual files</t>
-  </si>
-  <si>
     <t>Parallelization mode</t>
   </si>
   <si>
@@ -623,12 +488,6 @@
   </si>
   <si>
     <t>Select "Sample Mode" or "Peak Mode"</t>
-  </si>
-  <si>
-    <t>≥ 1 (integer) (Fill this cell in case you selected "YES" for PARAM0019) Greater numbers are beneficial to generate more reproducible baselines.</t>
-  </si>
-  <si>
-    <t>≥ 1 (integer). Greater numbers are recommended to manage memories, but it may result with tiny errors.</t>
   </si>
   <si>
     <t>See Figure S.13 in the Supporting Information of the manuscript</t>
@@ -699,9 +558,6 @@
     </r>
   </si>
   <si>
-    <t>Generate peaklist for individual HRMS files</t>
-  </si>
-  <si>
     <t>Reference file location address</t>
   </si>
   <si>
@@ -714,16 +570,246 @@
     <t>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</t>
   </si>
   <si>
-    <t>Rounding digit for mass spectral size reduction by removing non-ion-paired m/z values to accelerate calculations</t>
-  </si>
-  <si>
-    <t>Noise intensity theshold for the dominant ion in individual chromatogram scans</t>
-  </si>
-  <si>
     <t>"All" OR a list of semicolon separated of selected samples including their extensions with no extra space (case sensitive)</t>
   </si>
   <si>
-    <t>0-4 (integer) (Select 0 to skip this module) This module can reduce the 'spectraList' variable size more with greater rounding digits to speed up the workflow at cost of some errors.</t>
+    <t>≥ 1 (integer) Greater numbers are beneficial to generate more reproducible baselines.</t>
+  </si>
+  <si>
+    <t>Minimum Intensity height for chromatographic peaks</t>
+  </si>
+  <si>
+    <t>Peak annotation on individual untargeted peaklists using a reference database of m/z and RT</t>
+  </si>
+  <si>
+    <t>Generate aligned peak tables and correlation lists for the aligned peak height table</t>
+  </si>
+  <si>
+    <t>Mass accuracy (Da) to cluster m/z values and generate extracted ion chromatograms (EICs)</t>
+  </si>
+  <si>
+    <t>Minimum S/N for chromatographic peaks calculated by the baseline S/N method</t>
+  </si>
+  <si>
+    <t>≤ 0.01</t>
+  </si>
+  <si>
+    <t>Mass accuracy (Da) to cluster integrated m/z values across multiple samples</t>
+  </si>
+  <si>
+    <t>Mass accuracy (Da)</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/IPA_targeted</t>
+  </si>
+  <si>
+    <t>Generate untargeted peaklists for individual HRMS files</t>
+  </si>
+  <si>
+    <t>PARAM_ALG1</t>
+  </si>
+  <si>
+    <t>PARAM_ALG2</t>
+  </si>
+  <si>
+    <t>0.5-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum redundant aligned peak flagging threshold (%) within three times of the retention time window shown in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum threshold for the correlation method</t>
+  </si>
+  <si>
+    <t>Save untargeted extracted ion chromatogram (EIC) figures for individual HRMS files</t>
+  </si>
+  <si>
+    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
+  </si>
+  <si>
+    <t>Statistical method to calculate pairwise correlations to group potential recurring adducts, in-source products and fragment peaks in separate lists. Pearson and Spearman tests should be used for linear and monotonic correlations, respectively.</t>
+  </si>
+  <si>
+    <t>Minimum noise intensity theshold for the dominant ion in individual chromatogram scans</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It must be in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format with the file extension. Three column headers with 'm/z', 'RT', 'name' must be available in the spreadsheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO"(When "YES", fill out the `</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPA_targeted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>` tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Perform targeted analysis (Applicable only for the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPA_targeted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' module)</t>
+    </r>
+  </si>
+  <si>
+    <t>See Figure 3 in the main manuscript</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>(Default = "Pearson"), or "Spearman"</t>
+  </si>
+  <si>
+    <t>PARAM_ALG3</t>
+  </si>
+  <si>
+    <t>11-1000 (integer) (Select `0` to skip calculating ancillary chromatography parameters for faster computations)</t>
+  </si>
+  <si>
+    <t>Minimum number of complete observation for an aligned peak</t>
+  </si>
+  <si>
+    <t>[3 - Number of samples] Select this variable depending on the number of samples</t>
+  </si>
+  <si>
+    <t>PARAM_ALG4</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO"(When "YES", fill out PARAM0029-PARAM_ALG4)</t>
+  </si>
+  <si>
+    <t>"YES" or "NO" (When "YES", PARAM0029 must be "YES", and fill out PARAM0030-PARAM0036)</t>
+  </si>
+  <si>
+    <t>A column with a header of `Flag` is presented on the aligned peak table based on this parameter</t>
+  </si>
+  <si>
+    <t>Reference samples to detect recurring reference peaks for retention time correction.</t>
+  </si>
+  <si>
+    <t>Maximum absolute retention time deviation to merge redundant peaks (min)</t>
+  </si>
+  <si>
+    <t>a vector of comma separated m/z values</t>
+  </si>
+  <si>
+    <t>a vector of comma separated retention time values</t>
+  </si>
+  <si>
+    <t>Number of endogenous reference m/z peaks for "RetentionIndex" to correct retention times using endogenous reference markers</t>
+  </si>
+  <si>
+    <t>Retention time correction, peak properties alignment and aligned peaks height table pairwise correlations</t>
+  </si>
+  <si>
+    <t>Minimum percentage (%) of complete observation for an aligned peak</t>
+  </si>
+  <si>
+    <t>Minimum frequency (%) of the recurring reference peaks in the reference samples</t>
+  </si>
+  <si>
+    <t>Maximum ratio (%) of 13C for the integrated spectra across the chromatographic peak (Average R13C)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum ratio (%) of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nIsoPair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> per number of available scans above 80% of peak height (RCS)</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum percentage (%) of missing scans (gaps) on the top 80% of raw chromatographic peaks</t>
+  </si>
+  <si>
+    <t>Use corrected retention times to minimize RT fluctuations for the peak annotation workflow. Reference retention times should be consistent with retention times in the RT correction method.</t>
   </si>
 </sst>
 </file>
@@ -770,12 +856,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -827,6 +907,12 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1186,9 +1272,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1238,16 +1324,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,7 +1342,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,7 +1354,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,13 +1363,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,10 +1378,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,7 +1417,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1429,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1441,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,7 +1456,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,7 +1468,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1489,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1501,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,7 +1510,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,7 +1519,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1528,7 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,7 +1540,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,20 +1552,14 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,7 +1582,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,13 +1594,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,7 +1612,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1624,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,16 +1672,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,16 +1681,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,31 +1735,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,7 +1768,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,21 +1777,54 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1763,6 +1852,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,13 +1864,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,9 +1879,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,18 +1897,15 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1830,6 +1913,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,1576 +2214,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="72" style="44" customWidth="1"/>
-    <col min="5" max="5" width="67" style="45" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="32" style="44" customWidth="1"/>
-    <col min="9" max="9" width="30" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="39"/>
+    <col min="1" max="1" width="42.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19" style="39" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="72" style="42" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:6" s="36" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="173"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="185"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="174"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="185"/>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="174"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="185"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="174"/>
+    </row>
+    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="185"/>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186"/>
+      <c r="B7" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="88">
+        <v>1</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="175"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="199" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="134"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="200"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="5" t="s">
+      <c r="E9" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="135"/>
+    </row>
+    <row r="10" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="201"/>
+      <c r="B10" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="185"/>
-      <c r="B7" s="88" t="s">
+      <c r="C10" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="166"/>
+    </row>
+    <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="201"/>
+      <c r="B11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="90">
-        <v>1</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="198" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="1:9" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="142"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="200"/>
-      <c r="B11" s="172" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="174" t="str">
+      <c r="C11" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="55" t="str">
         <f>CONCATENATE(D8, "/IDSL.IPA")</f>
         <v>/path/to/folder/MS1/IDSL.IPA</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="201"/>
-      <c r="B12" s="55" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="166"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="84">
+        <v>500</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="208" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="198"/>
+      <c r="B13" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="92">
+        <v>1.003354835336</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="209"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="136"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="196"/>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="137"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="196"/>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="8">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="196"/>
+      <c r="B17" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="171" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="172" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="203"/>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="196" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="86">
-        <v>500</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="208" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="86">
-        <v>500</v>
-      </c>
-      <c r="H13" s="86">
+      <c r="D19" s="12">
+        <v>100</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="203"/>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="13">
         <v>1000</v>
       </c>
-      <c r="I13" s="86">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="197"/>
-      <c r="B14" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="94">
-        <v>1.003354835336</v>
-      </c>
-      <c r="E14" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="209"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="193" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="66">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I15" s="66">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="194"/>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="145"/>
-      <c r="G16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="194"/>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="8">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="166" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="8">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8">
-        <v>15</v>
-      </c>
-      <c r="I17" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="194"/>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="195"/>
-      <c r="B19" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="77">
-        <v>0</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="77">
-        <v>1</v>
-      </c>
-      <c r="H19" s="77">
-        <v>1</v>
-      </c>
-      <c r="I19" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="202" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="169" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="138"/>
+    </row>
+    <row r="21" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="203"/>
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D21" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="163" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="12">
-        <v>100</v>
-      </c>
-      <c r="H21" s="12">
-        <v>100</v>
-      </c>
-      <c r="I21" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="203"/>
       <c r="B22" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1000</v>
+        <v>113</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="13">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F22" s="182" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="203"/>
       <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>183</v>
       </c>
       <c r="D23" s="12">
         <v>30</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="183"/>
+    </row>
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="203"/>
+      <c r="B24" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="123">
+        <v>100</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="163" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="F24" s="159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="203"/>
+      <c r="B25" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="123">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="155" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="153" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="203"/>
+      <c r="B26" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="123">
+        <v>2</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="204"/>
+      <c r="B27" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="124">
+        <v>100</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="139" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="190" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="140"/>
+    </row>
+    <row r="29" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="191"/>
+      <c r="B29" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="141"/>
+    </row>
+    <row r="30" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="191"/>
+      <c r="B30" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="118">
+        <v>50</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="141"/>
+    </row>
+    <row r="31" spans="1:6" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="191"/>
+      <c r="B31" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="12">
+      <c r="F31" s="141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="191"/>
+      <c r="B32" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
-      <c r="B24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="C32" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="118">
+        <v>5</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="191"/>
+      <c r="B33" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="119">
+        <v>3</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="142"/>
+    </row>
+    <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="192"/>
+      <c r="B34" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="12">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="181" t="s">
+      <c r="D34" s="110">
+        <f>D14</f>
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="143"/>
+    </row>
+    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="192"/>
+      <c r="B35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="110">
+        <f>D15</f>
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="193"/>
+      <c r="B36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="22">
+        <v>25</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="193"/>
+      <c r="B37" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="177" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="176"/>
+    </row>
+    <row r="38" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="193"/>
+      <c r="B38" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="180">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="176"/>
+    </row>
+    <row r="39" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="193"/>
+      <c r="B39" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="179" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="180">
+        <v>3</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="176"/>
+    </row>
+    <row r="40" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="194"/>
+      <c r="B40" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="98">
+        <v>10</v>
+      </c>
+      <c r="E40" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="51">
+        <f>D34</f>
+        <v>0.01</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="206"/>
+      <c r="B42" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="26">
+        <f>2*D35</f>
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="147"/>
+    </row>
+    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="207"/>
+      <c r="B43" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="60">
+        <v>20</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="103"/>
+      <c r="F44" s="148"/>
+    </row>
+    <row r="45" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="188"/>
+      <c r="B45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="188"/>
+      <c r="B46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="12">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12">
-        <v>2</v>
-      </c>
-      <c r="I24" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="12">
-        <v>30</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="182"/>
-      <c r="G25" s="12">
-        <v>30</v>
-      </c>
-      <c r="H25" s="12">
-        <v>30</v>
-      </c>
-      <c r="I25" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
-      <c r="B26" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="127">
-        <v>100</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="168" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="12">
-        <v>80</v>
-      </c>
-      <c r="H26" s="12">
-        <v>80</v>
-      </c>
-      <c r="I26" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="D46" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="150"/>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="188"/>
+      <c r="B47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="127">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="162" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
-      <c r="B28" s="161" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="127">
-        <v>2</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="164" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="12">
-        <v>2</v>
-      </c>
-      <c r="H28" s="12">
-        <v>5</v>
-      </c>
-      <c r="I28" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="204"/>
-      <c r="B29" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="128">
-        <v>100</v>
-      </c>
-      <c r="E29" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="148" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="80">
-        <v>100</v>
-      </c>
-      <c r="H29" s="80">
-        <v>100</v>
-      </c>
-      <c r="I29" s="80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="189" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="149"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-    </row>
-    <row r="31" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="190"/>
-      <c r="B31" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="150"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="190"/>
-      <c r="B32" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="122">
-        <v>50</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="D47" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="149"/>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="188"/>
+      <c r="B48" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="149"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="188"/>
+      <c r="B49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="149"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="188"/>
+      <c r="B50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="149"/>
+    </row>
+    <row r="51" spans="1:6" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="189"/>
+      <c r="B51" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="150"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="190"/>
-      <c r="B33" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="150" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="190"/>
-      <c r="B34" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="122">
-        <v>5</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="190"/>
-      <c r="B35" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
-      <c r="B36" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="114">
-        <v>0.01</v>
-      </c>
-      <c r="E36" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="152"/>
-      <c r="G36" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="H36" s="22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I36" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="191"/>
-      <c r="B37" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="192"/>
-      <c r="B38" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="102">
-        <v>20</v>
-      </c>
-      <c r="E38" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="154"/>
-      <c r="G38" s="102">
-        <v>20</v>
-      </c>
-      <c r="H38" s="102">
-        <v>20</v>
-      </c>
-      <c r="I38" s="102">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="205" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="155"/>
-      <c r="G39" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="53">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I39" s="53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="206"/>
-      <c r="B40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="156"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="207"/>
-      <c r="B41" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="62">
-        <v>20</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="170" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="186" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-    </row>
-    <row r="43" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
-      <c r="B43" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="165" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="187"/>
-      <c r="B44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="159"/>
-      <c r="G44" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="H44" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I44" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="187"/>
-      <c r="B45" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="158"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="187"/>
-      <c r="B46" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="158"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="187"/>
-      <c r="B47" s="14" t="s">
+      <c r="C51" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="158"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="187"/>
-      <c r="B48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="158"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="188"/>
-      <c r="B49" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="160"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="42"/>
+      <c r="D51" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="151"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1" location="2-hypothetical-baseline"/>
-    <hyperlink ref="F43" r:id="rId2"/>
-    <hyperlink ref="F24" r:id="rId3"/>
-    <hyperlink ref="F23" r:id="rId4"/>
-    <hyperlink ref="F13" r:id="rId5"/>
-    <hyperlink ref="F27" r:id="rId6"/>
-    <hyperlink ref="F34" r:id="rId7"/>
-    <hyperlink ref="F18" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F41" r:id="rId11"/>
+    <hyperlink ref="F26" r:id="rId1" location="2-hypothetical-baseline"/>
+    <hyperlink ref="F45" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
+    <hyperlink ref="F21" r:id="rId4"/>
+    <hyperlink ref="F12" r:id="rId5"/>
+    <hyperlink ref="F25" r:id="rId6"/>
+    <hyperlink ref="F32" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
+    <hyperlink ref="F19" r:id="rId10"/>
+    <hyperlink ref="F43" r:id="rId11"/>
     <hyperlink ref="F6" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
+  <ignoredErrors>
+    <ignoredError sqref="D42" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19" style="41" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="70.88671875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="54.5546875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="26" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="39"/>
+    <col min="1" max="1" width="46.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="63" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="37" t="s">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="36" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="179" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="180" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" s="38" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="211"/>
-      <c r="B3" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="88">
+      <c r="C2" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="32">
         <f>parameters!D7</f>
         <v>1</v>
       </c>
-      <c r="E3" s="178" t="s">
+      <c r="E2" s="170" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="36" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="210"/>
+      <c r="B3" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="168" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="215" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="49" t="str">
+      <c r="B4" s="45" t="str">
+        <f>parameters!B8</f>
+        <v>PARAM0007</v>
+      </c>
+      <c r="C4" s="46" t="str">
+        <f>parameters!C8</f>
+        <v>Input data location address (MS1 level HRMS data)</v>
+      </c>
+      <c r="D4" s="47" t="str">
         <f>parameters!D8</f>
         <v>/path/to/folder/MS1</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="215"/>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="216"/>
+      <c r="B5" s="1" t="str">
+        <f>parameters!B9</f>
+        <v>PARAM0008</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>parameters!C9</f>
+        <v>List of HRMS files (.mzXML/.mzML/.CDF)</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>parameters!D9</f>
         <v>All</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="215"/>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="216"/>
+      <c r="B6" s="1" t="str">
+        <f>parameters!B10</f>
+        <v>PARAM0009</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>parameters!C10</f>
+        <v>Save untargeted extracted ion chromatogram (EIC) figures for individual HRMS files</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>parameters!D10</f>
-        <v>mzML</v>
+        <v>NO</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="215"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="216"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>parameters!D11</f>
+        <v>97</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="217"/>
+      <c r="B8" s="53" t="str">
+        <f>parameters!B11</f>
+        <v>PARAM0010</v>
+      </c>
+      <c r="C8" s="54" t="str">
+        <f>parameters!C11</f>
+        <v>Output location address (MS1 processed data)</v>
+      </c>
+      <c r="D8" s="55" t="str">
+        <f>CONCATENATE(D4, "/IDSL.IPA")</f>
         <v>/path/to/folder/MS1/IDSL.IPA</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="215"/>
-      <c r="B8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="216"/>
-      <c r="B9" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="213" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="206"/>
-      <c r="B11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="136" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="68" t="str">
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="212" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="206"/>
+      <c r="B10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="66" t="str">
+        <f>parameters!B13</f>
+        <v>PARAM0012</v>
+      </c>
+      <c r="C11" s="129" t="str">
+        <f>parameters!C13</f>
+        <v>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</v>
+      </c>
+      <c r="D11" s="68">
+        <f>parameters!D13</f>
+        <v>1.003354835336</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f>parameters!E13</f>
+        <v>(Default = ∆C = 13C - 12C = 1.003354835336 to only find carbon-containing peaks), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="213" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="64" t="str">
         <f>parameters!B14</f>
-        <v>PARAM0012</v>
-      </c>
-      <c r="C12" s="133" t="str">
+        <v>PARAM0013</v>
+      </c>
+      <c r="C12" s="125" t="str">
         <f>parameters!C14</f>
-        <v>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</v>
-      </c>
-      <c r="D12" s="70">
+        <v>Mass accuracy (Da) to cluster m/z values and generate extracted ion chromatograms (EICs)</v>
+      </c>
+      <c r="D12" s="64">
         <f>parameters!D14</f>
-        <v>1.003354835336</v>
-      </c>
-      <c r="E12" s="69" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="125" t="str">
         <f>parameters!E14</f>
-        <v>(Default = ∆C = 13C - 12C = 1.003354835336 to only find carbon-containing peaks), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
-      </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="214" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="66" t="str">
-        <f>parameters!B15</f>
-        <v>PARAM0013</v>
-      </c>
-      <c r="C13" s="129" t="str">
-        <f>parameters!C15</f>
-        <v>Mass accuracy to cluster m/z values and generate extracted ion chromatograms (XICs) (Da)</v>
-      </c>
-      <c r="D13" s="66">
-        <f>parameters!D15</f>
-        <v>0.01</v>
-      </c>
-      <c r="E13" s="129" t="str">
-        <f>parameters!E15</f>
-        <v>≥ 0.0001</v>
-      </c>
-      <c r="F13" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="66">
-        <v>2E-3</v>
-      </c>
-      <c r="H13" s="66">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="194"/>
-      <c r="B14" s="8" t="str">
+        <v>≤ 0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="196"/>
+      <c r="B13" s="8" t="str">
+        <f>parameters!B16</f>
+        <v>PARAM0015</v>
+      </c>
+      <c r="C13" s="126" t="str">
+        <f>parameters!C16</f>
+        <v>Smoothing window (number of MS1 scans)</v>
+      </c>
+      <c r="D13" s="8">
+        <f>parameters!D16</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="126" t="str">
+        <f>parameters!E16</f>
+        <v>≥ 5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="214"/>
+      <c r="B14" s="75" t="str">
         <f>parameters!B17</f>
-        <v>PARAM0015</v>
-      </c>
-      <c r="C14" s="130" t="str">
+        <v>PARAM0017</v>
+      </c>
+      <c r="C14" s="127" t="str">
         <f>parameters!C17</f>
-        <v>Smoothing window (number of MS1 scans)</v>
-      </c>
-      <c r="D14" s="8">
+        <v>Peak tailing/fronting resolving power</v>
+      </c>
+      <c r="D14" s="75">
         <f>parameters!D17</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="130" t="str">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="127" t="str">
         <f>parameters!E17</f>
-        <v>≥ 5</v>
-      </c>
-      <c r="F14" s="8">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="195"/>
-      <c r="B15" s="77" t="str">
-        <f>parameters!B18</f>
-        <v>PARAM0017</v>
-      </c>
-      <c r="C15" s="131" t="str">
-        <f>parameters!C18</f>
-        <v>Peak tailing/fronting resolving power</v>
-      </c>
-      <c r="D15" s="77">
-        <f>parameters!D18</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E15" s="131" t="str">
-        <f>parameters!E18</f>
         <v>0-0.05 (Select 0 to skip this module)</v>
       </c>
-      <c r="F15" s="77">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="77">
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="77">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="73" t="str">
-        <f>parameters!B21</f>
+    </row>
+    <row r="15" spans="1:5" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="211" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="71" t="str">
+        <f>parameters!B19</f>
         <v>PARAM0020</v>
       </c>
-      <c r="C16" s="134" t="str">
-        <f>parameters!C21</f>
+      <c r="C15" s="130" t="str">
+        <f>parameters!C19</f>
         <v>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis to reconstruct baseline</v>
       </c>
-      <c r="D16" s="73">
-        <f>parameters!D21</f>
+      <c r="D15" s="71">
+        <f>parameters!D19</f>
         <v>100</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="73">
-        <v>50</v>
-      </c>
-      <c r="G16" s="73">
-        <v>0</v>
-      </c>
-      <c r="H16" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="204"/>
-      <c r="B17" s="80" t="str">
-        <f>parameters!B29</f>
+      <c r="E15" s="72"/>
+    </row>
+    <row r="16" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="204"/>
+      <c r="B16" s="78" t="str">
+        <f>parameters!B27</f>
         <v>PARAM0028</v>
       </c>
-      <c r="C17" s="132" t="str">
-        <f>parameters!C29</f>
+      <c r="C16" s="128" t="str">
+        <f>parameters!C27</f>
         <v>Number of points to smooth individual chromatographic peaks using cubic spline method to calculate ancillary chromatography parameters</v>
       </c>
-      <c r="D17" s="80">
-        <f>parameters!D29</f>
+      <c r="D16" s="78">
+        <f>parameters!D27</f>
         <v>100</v>
       </c>
-      <c r="E17" s="132" t="str">
-        <f>parameters!E29</f>
-        <v>11-1000 (integer) (0 to skip calculating ancillary chromatography parameters)</v>
-      </c>
-      <c r="F17" s="80">
-        <v>100</v>
-      </c>
-      <c r="G17" s="80">
-        <v>100</v>
-      </c>
-      <c r="H17" s="80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="44" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="E16" s="128" t="str">
+        <f>parameters!E27</f>
+        <v>11-1000 (integer) (Select `0` to skip calculating ancillary chromatography parameters for faster computations)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="42" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/IPA_parameters.xlsx
+++ b/inst/extdata/IPA_parameters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
   <si>
     <t>0-100</t>
   </si>
@@ -120,9 +120,6 @@
     <t>"RetentionIndex" or "Polynomial"</t>
   </si>
   <si>
-    <t>Polynomial degree for "Polynomial" regression</t>
-  </si>
-  <si>
     <t>PARAM0024</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t>PARAM0047</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO"(When "YES", fill out PARAM0011-PARAM0028)</t>
   </si>
   <si>
     <t>"YES" OR "NO"(When "YES", fill out PARAM0038-PARAM0040)</t>
@@ -418,9 +412,6 @@
     <t>https://github.com/idslme/IDSL.IPA/blob/main/Reference_masses_peak_annotation.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/idslme/IDSL.IPA/wiki/Defintion-Signal-to-Noise-Ratio#2-hypothetical-baseline</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Minimum number of scans having ion pairs within the chromatographic peak </t>
     </r>
@@ -642,16 +633,7 @@
     <t>Minimum threshold for the correlation method</t>
   </si>
   <si>
-    <t>Save untargeted extracted ion chromatogram (EIC) figures for individual HRMS files</t>
-  </si>
-  <si>
-    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
-  </si>
-  <si>
     <t>Statistical method to calculate pairwise correlations to group potential recurring adducts, in-source products and fragment peaks in separate lists. Pearson and Spearman tests should be used for linear and monotonic correlations, respectively.</t>
-  </si>
-  <si>
-    <t>Minimum noise intensity theshold for the dominant ion in individual chromatogram scans</t>
   </si>
   <si>
     <r>
@@ -767,9 +749,6 @@
     <t>a vector of comma separated retention time values</t>
   </si>
   <si>
-    <t>Number of endogenous reference m/z peaks for "RetentionIndex" to correct retention times using endogenous reference markers</t>
-  </si>
-  <si>
     <t>Retention time correction, peak properties alignment and aligned peaks height table pairwise correlations</t>
   </si>
   <si>
@@ -811,6 +790,140 @@
   <si>
     <t>Use corrected retention times to minimize RT fluctuations for the peak annotation workflow. Reference retention times should be consistent with retention times in the RT correction method.</t>
   </si>
+  <si>
+    <t>Parallelization mode to generate individual peaklists</t>
+  </si>
+  <si>
+    <t>Parallelization Mode</t>
+  </si>
+  <si>
+    <t>Minimum noise intensity threshold for the dominant ion in individual chromatogram scans</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <r>
+      <t>List of HRMS files (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.mzXML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.mzML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.CDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of endogenous reference m/z peaks for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RetentionIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to correct retention times using endogenous reference markers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Polynomial degree for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polynomial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> regression</t>
+    </r>
+  </si>
+  <si>
+    <t>"YES" OR "NO"(When "YES", fill out PARAM0007-PARAM0028)</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Definition-Signal-to-Noise-Ratio#2-hypothetical-baseline</t>
+  </si>
+  <si>
+    <t>Retention time tolerance (min) to detect common peaks</t>
+  </si>
+  <si>
+    <t>Save untargeted extracted ion chromatogram (EIC) figures for all peaks in the individual HRMS files</t>
+  </si>
 </sst>
 </file>
 
@@ -819,7 +932,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +1030,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -986,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1269,12 +1397,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1789,16 +1956,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,13 +1980,37 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,49 +2043,49 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="12" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,19 +2097,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2214,18 +2387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" style="38" customWidth="1"/>
     <col min="2" max="2" width="19" style="39" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="66" style="40" customWidth="1"/>
     <col min="4" max="4" width="72" style="42" customWidth="1"/>
     <col min="5" max="5" width="68.85546875" style="43" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" style="42" customWidth="1"/>
@@ -2237,845 +2410,851 @@
         <v>28</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
-        <v>64</v>
+      <c r="A2" s="190" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="173"/>
+        <v>186</v>
+      </c>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="174"/>
+        <v>165</v>
+      </c>
+      <c r="F3" s="173"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="174"/>
+        <v>72</v>
+      </c>
+      <c r="F4" s="173"/>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="174"/>
+        <v>123</v>
+      </c>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F6" s="161" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="192"/>
       <c r="B7" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="88">
         <v>1</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="175"/>
+        <v>66</v>
+      </c>
+      <c r="F7" s="186" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
-        <v>78</v>
+      <c r="A8" s="211" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="134"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="200"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="162" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="163" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D10" s="164" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="166"/>
     </row>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+    <row r="11" spans="1:6" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="213"/>
       <c r="B11" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" s="55" t="str">
         <f>CONCATENATE(D8, "/IDSL.IPA")</f>
         <v>/path/to/folder/MS1/IDSL.IPA</v>
       </c>
       <c r="E11" s="56"/>
-      <c r="F11" s="166"/>
-    </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="83" t="s">
+      <c r="F11" s="180"/>
+    </row>
+    <row r="12" spans="1:6" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="183" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="182" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="184" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="187" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="214" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="84">
+      <c r="C13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="84">
         <v>500</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E13" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="209" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="215"/>
+      <c r="B14" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="92">
+        <v>1.003354835336</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="210"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="201" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="136"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="202"/>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="137"/>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="202"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="8">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="157" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="202"/>
+      <c r="B18" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="203" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="204"/>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="12">
+        <v>100</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="154" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="204"/>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="138"/>
+    </row>
+    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="204"/>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="12">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="154" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="204"/>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="188" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="204"/>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="12">
+        <v>30</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="189"/>
+    </row>
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="204"/>
+      <c r="B25" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="123">
+        <v>100</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="204"/>
+      <c r="B26" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="123">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="153" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="204"/>
+      <c r="B27" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="123">
+        <v>2</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="208" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="198"/>
-      <c r="B13" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="92">
-        <v>1.003354835336</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="209"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="F27" s="155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="205"/>
+      <c r="B28" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="124">
+        <v>100</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="196" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="140"/>
+    </row>
+    <row r="30" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="197"/>
+      <c r="B30" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="141"/>
+    </row>
+    <row r="31" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="197"/>
+      <c r="B31" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="118">
+        <v>50</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="197"/>
+      <c r="B32" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="197"/>
+      <c r="B33" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="118">
+        <v>5</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="197"/>
+      <c r="B34" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="119">
+        <v>3</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="142"/>
+    </row>
+    <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="198"/>
+      <c r="B35" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="108" t="s">
         <v>144</v>
-      </c>
-      <c r="D14" s="64">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="136"/>
-    </row>
-    <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="196"/>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="137"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="196"/>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="8">
-        <v>12</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="157" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="75">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="171" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="172" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="203"/>
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="12">
-        <v>100</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="154" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203"/>
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="138"/>
-    </row>
-    <row r="21" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="12">
-        <v>30</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="154" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="203"/>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="182" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="203"/>
-      <c r="B23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="12">
-        <v>30</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="183"/>
-    </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="203"/>
-      <c r="B24" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="123">
-        <v>100</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="203"/>
-      <c r="B25" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="123">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="155" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="153" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="203"/>
-      <c r="B26" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="123">
-        <v>2</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="204"/>
-      <c r="B27" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="124">
-        <v>100</v>
-      </c>
-      <c r="E27" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="139" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="40.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="140"/>
-    </row>
-    <row r="29" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
-      <c r="B29" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="141"/>
-    </row>
-    <row r="30" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
-      <c r="B30" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="118">
-        <v>50</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="141"/>
-    </row>
-    <row r="31" spans="1:6" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="191"/>
-      <c r="B31" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="191"/>
-      <c r="B32" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="118">
-        <v>5</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="158" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
-      <c r="B33" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="119">
-        <v>3</v>
-      </c>
-      <c r="E33" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="142"/>
-    </row>
-    <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="192"/>
-      <c r="B34" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="110">
-        <f>D14</f>
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="143"/>
-    </row>
-    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="192"/>
-      <c r="B35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="108" t="s">
-        <v>52</v>
       </c>
       <c r="D35" s="110">
         <f>D15</f>
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="143"/>
+    </row>
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="198"/>
+      <c r="B36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="110">
+        <f>D16</f>
         <v>0.05</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="144"/>
-    </row>
-    <row r="36" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
-      <c r="B36" s="21" t="s">
+      <c r="E36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="199"/>
+      <c r="B37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="22">
+        <v>25</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="174" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="199"/>
+      <c r="B38" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="174"/>
+    </row>
+    <row r="39" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="199"/>
+      <c r="B39" s="176" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="178">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="179" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="174"/>
+    </row>
+    <row r="40" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="199"/>
+      <c r="B40" s="176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="177" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="178">
+        <v>3</v>
+      </c>
+      <c r="E40" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="174"/>
+    </row>
+    <row r="41" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="200"/>
+      <c r="B41" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="98">
+        <v>10</v>
+      </c>
+      <c r="E41" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="206" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="177" t="s">
+      <c r="C42" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="51">
+        <f>D35</f>
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="207"/>
+      <c r="B43" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="26">
+        <f>2*D36</f>
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="147"/>
+    </row>
+    <row r="44" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="208"/>
+      <c r="B44" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="60">
+        <v>20</v>
+      </c>
+      <c r="E44" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="160" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="193" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="103"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="194"/>
+      <c r="B46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="22">
-        <v>25</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="176" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193"/>
-      <c r="B37" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="177" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="176"/>
-    </row>
-    <row r="38" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="193"/>
-      <c r="B38" s="178" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="180">
-        <v>0.75</v>
-      </c>
-      <c r="E38" s="181" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="176"/>
-    </row>
-    <row r="39" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193"/>
-      <c r="B39" s="178" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="179" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="180">
-        <v>3</v>
-      </c>
-      <c r="E39" s="181" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="176"/>
-    </row>
-    <row r="40" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="194"/>
-      <c r="B40" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="98">
-        <v>10</v>
-      </c>
-      <c r="E40" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="145"/>
-    </row>
-    <row r="41" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="49" t="s">
+      <c r="F46" s="156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="194"/>
+      <c r="B47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="150"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="194"/>
+      <c r="B48" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="51">
-        <f>D34</f>
-        <v>0.01</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="146"/>
-    </row>
-    <row r="42" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="206"/>
-      <c r="B42" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="26">
-        <f>2*D35</f>
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="147"/>
-    </row>
-    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="207"/>
-      <c r="B43" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="60">
-        <v>20</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="160" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="148"/>
-    </row>
-    <row r="45" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="188"/>
-      <c r="B45" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="156" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
-      <c r="B46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="150"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="188"/>
-      <c r="B47" s="14" t="s">
+      <c r="F48" s="149"/>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="194"/>
+      <c r="B49" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="149"/>
-    </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="188"/>
-      <c r="B48" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="149"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="188"/>
-      <c r="B49" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="C49" s="15" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="F49" s="149"/>
     </row>
     <row r="50" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="188"/>
+      <c r="A50" s="194"/>
       <c r="B50" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>26</v>
@@ -3085,58 +3264,76 @@
       </c>
       <c r="F50" s="149"/>
     </row>
-    <row r="51" spans="1:6" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="189"/>
-      <c r="B51" s="104" t="s">
+    <row r="51" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="194"/>
+      <c r="B51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="149"/>
+    </row>
+    <row r="52" spans="1:6" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="195"/>
+      <c r="B52" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="151"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="40"/>
+      <c r="F52" s="151"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" location="2-hypothetical-baseline"/>
-    <hyperlink ref="F45" r:id="rId2"/>
-    <hyperlink ref="F22" r:id="rId3"/>
-    <hyperlink ref="F21" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F25" r:id="rId6"/>
-    <hyperlink ref="F32" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F16" r:id="rId9"/>
-    <hyperlink ref="F19" r:id="rId10"/>
-    <hyperlink ref="F43" r:id="rId11"/>
+    <hyperlink ref="F27" r:id="rId1" location="2-hypothetical-baseline"/>
+    <hyperlink ref="F46" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F33" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F20" r:id="rId10"/>
+    <hyperlink ref="F44" r:id="rId11"/>
     <hyperlink ref="F6" r:id="rId12"/>
+    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="F7" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <ignoredErrors>
-    <ignoredError sqref="D42" formula="1"/>
+    <ignoredError sqref="D43" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3147,7 +3344,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3165,54 +3362,54 @@
         <v>28</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="36" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
-        <v>64</v>
+      <c r="A2" s="216" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="32">
         <f>parameters!D7</f>
         <v>1</v>
       </c>
       <c r="E2" s="170" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="210"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="86" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="168" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
-        <v>78</v>
+      <c r="A4" s="211" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="45" t="str">
         <f>parameters!B8</f>
@@ -3229,7 +3426,7 @@
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="216"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="1" t="str">
         <f>parameters!B9</f>
         <v>PARAM0008</v>
@@ -3243,51 +3440,49 @@
         <v>All</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="216"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="1" t="str">
         <f>parameters!B10</f>
         <v>PARAM0009</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>parameters!C10</f>
-        <v>Save untargeted extracted ion chromatogram (EIC) figures for individual HRMS files</v>
+        <v>Save untargeted extracted ion chromatogram (EIC) figures for all peaks in the individual HRMS files</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>parameters!D10</f>
         <v>NO</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="212"/>
+      <c r="B7" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="216"/>
-      <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="217"/>
-      <c r="B8" s="53" t="str">
-        <f>parameters!B11</f>
-        <v>PARAM0010</v>
-      </c>
-      <c r="C8" s="54" t="str">
-        <f>parameters!C11</f>
-        <v>Output location address (MS1 processed data)</v>
+      <c r="A8" s="213"/>
+      <c r="B8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="55" t="str">
         <f>CONCATENATE(D4, "/IDSL.IPA")</f>
@@ -3296,151 +3491,151 @@
       <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="218" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207"/>
+      <c r="B10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="206"/>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>95</v>
-      </c>
       <c r="D10" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="132" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="66" t="str">
-        <f>parameters!B13</f>
+        <f>parameters!B14</f>
         <v>PARAM0012</v>
       </c>
       <c r="C11" s="129" t="str">
-        <f>parameters!C13</f>
+        <f>parameters!C14</f>
         <v>Mass difference between ion-pairs. This module always pairs dominant ions with lower intensity ions in a fixed distance. To pair dominant ions with lower mass ions, negative values should be used for this parameter.</v>
       </c>
       <c r="D11" s="68">
-        <f>parameters!D13</f>
+        <f>parameters!D14</f>
         <v>1.003354835336</v>
       </c>
       <c r="E11" s="67" t="str">
-        <f>parameters!E13</f>
+        <f>parameters!E14</f>
         <v>(Default = ∆C = 13C - 12C = 1.003354835336 to only find carbon-containing peaks), ∆S = 34S - 32S = 1.9957958356, or any numerical value</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="201" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="64" t="str">
-        <f>parameters!B14</f>
+        <f>parameters!B15</f>
         <v>PARAM0013</v>
       </c>
       <c r="C12" s="125" t="str">
-        <f>parameters!C14</f>
+        <f>parameters!C15</f>
         <v>Mass accuracy (Da) to cluster m/z values and generate extracted ion chromatograms (EICs)</v>
       </c>
       <c r="D12" s="64">
-        <f>parameters!D14</f>
+        <f>parameters!D15</f>
         <v>0.01</v>
       </c>
       <c r="E12" s="125" t="str">
-        <f>parameters!E14</f>
+        <f>parameters!E15</f>
         <v>≤ 0.01</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="8" t="str">
-        <f>parameters!B16</f>
+        <f>parameters!B17</f>
         <v>PARAM0015</v>
       </c>
       <c r="C13" s="126" t="str">
-        <f>parameters!C16</f>
+        <f>parameters!C17</f>
         <v>Smoothing window (number of MS1 scans)</v>
       </c>
       <c r="D13" s="8">
-        <f>parameters!D16</f>
+        <f>parameters!D17</f>
         <v>12</v>
       </c>
       <c r="E13" s="126" t="str">
-        <f>parameters!E16</f>
+        <f>parameters!E17</f>
         <v>≥ 5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="75" t="str">
-        <f>parameters!B17</f>
+        <f>parameters!B18</f>
         <v>PARAM0017</v>
       </c>
       <c r="C14" s="127" t="str">
-        <f>parameters!C17</f>
+        <f>parameters!C18</f>
         <v>Peak tailing/fronting resolving power</v>
       </c>
       <c r="D14" s="75">
-        <f>parameters!D17</f>
+        <f>parameters!D18</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="127" t="str">
-        <f>parameters!E17</f>
+        <f>parameters!E18</f>
         <v>0-0.05 (Select 0 to skip this module)</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="211" t="s">
-        <v>65</v>
+      <c r="A15" s="217" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="71" t="str">
-        <f>parameters!B19</f>
+        <f>parameters!B20</f>
         <v>PARAM0020</v>
       </c>
       <c r="C15" s="130" t="str">
-        <f>parameters!C19</f>
+        <f>parameters!C20</f>
         <v>Number of extra scans on the both sides of detected peak boundaries in the recursive analysis to reconstruct baseline</v>
       </c>
       <c r="D15" s="71">
-        <f>parameters!D19</f>
+        <f>parameters!D20</f>
         <v>100</v>
       </c>
       <c r="E15" s="72"/>
     </row>
     <row r="16" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="78" t="str">
-        <f>parameters!B27</f>
+        <f>parameters!B28</f>
         <v>PARAM0028</v>
       </c>
       <c r="C16" s="128" t="str">
-        <f>parameters!C27</f>
+        <f>parameters!C28</f>
         <v>Number of points to smooth individual chromatographic peaks using cubic spline method to calculate ancillary chromatography parameters</v>
       </c>
       <c r="D16" s="78">
-        <f>parameters!D27</f>
+        <f>parameters!D28</f>
         <v>100</v>
       </c>
       <c r="E16" s="128" t="str">
-        <f>parameters!E27</f>
+        <f>parameters!E28</f>
         <v>11-1000 (integer) (Select `0` to skip calculating ancillary chromatography parameters for faster computations)</v>
       </c>
     </row>
